--- a/static/Debt Affordability Study Data.xlsx
+++ b/static/Debt Affordability Study Data.xlsx
@@ -1,25 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\PycharmProjects\WA_Treasury\static\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="28755" windowHeight="12330" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="28755" windowHeight="12330" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Outstanding (Fig 2)" sheetId="1" r:id="rId1"/>
     <sheet name="New Money Issuance (Fig 3)" sheetId="2" r:id="rId2"/>
-    <sheet name="Debt Service (Fig 4,5)" sheetId="3" r:id="rId3"/>
-    <sheet name="Debt Serv % of Gen Fund (Fig10)" sheetId="4" r:id="rId4"/>
-    <sheet name="Coverage Rev MVFT Debt (Fig 15)" sheetId="5" r:id="rId5"/>
-    <sheet name="Bond Issuance (Granular Data)" sheetId="6" r:id="rId6"/>
-    <sheet name="Bonds Outstanding (Grandular)" sheetId="7" r:id="rId7"/>
+    <sheet name="Debt Service Paid (Fig 4,5)" sheetId="3" r:id="rId3"/>
+    <sheet name="Debt Service Due (Fig 4,5)" sheetId="8" r:id="rId4"/>
+    <sheet name="Debt Serv % of Gen Fund (Fig10)" sheetId="4" r:id="rId5"/>
+    <sheet name="Coverage Rev MVFT Debt (Fig 15)" sheetId="5" r:id="rId6"/>
+    <sheet name="Bond Issuance (Granular Data)" sheetId="6" r:id="rId7"/>
+    <sheet name="Bonds Outstanding (Grandular)" sheetId="7" r:id="rId8"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId8"/>
     <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
   </externalReferences>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -29,7 +35,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="A15" authorId="0">
+    <comment ref="A15" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -53,7 +59,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A51" authorId="0">
+    <comment ref="A51" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -82,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1965" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1972" uniqueCount="546">
   <si>
     <t>FY</t>
   </si>
@@ -1725,7 +1731,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
@@ -1733,7 +1739,7 @@
     <numFmt numFmtId="166" formatCode="dd\-mmm\-yy"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00;\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1799,12 +1805,13 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
-      <charset val="161"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2000,12 +2007,30 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2029,12 +2054,15 @@
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="0"/>
@@ -2054,6 +2082,7 @@
               <a:schemeClr val="accent1"/>
             </a:solidFill>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>'Outstanding (Fig 2)'!$A$4:$A$20</c:f>
@@ -2189,6 +2218,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>'Outstanding (Fig 2)'!$A$4:$A$20</c:f>
@@ -2329,6 +2359,7 @@
               <a:schemeClr val="accent5"/>
             </a:solidFill>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>'Outstanding (Fig 2)'!$A$4:$A$20</c:f>
@@ -2469,6 +2500,7 @@
               <a:schemeClr val="accent6"/>
             </a:solidFill>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>'Outstanding (Fig 2)'!$A$4:$A$20</c:f>
@@ -2609,6 +2641,7 @@
               <a:schemeClr val="accent2"/>
             </a:solidFill>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>'Outstanding (Fig 2)'!$A$4:$A$20</c:f>
@@ -2704,6 +2737,7 @@
               <a:schemeClr val="accent4"/>
             </a:solidFill>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>'Outstanding (Fig 2)'!$A$4:$A$20</c:f>
@@ -2825,44 +2859,57 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="100"/>
-        <c:axId val="244222976"/>
-        <c:axId val="243687808"/>
+        <c:axId val="541347392"/>
+        <c:axId val="541352488"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="244222976"/>
+        <c:axId val="541347392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="243687808"/>
+        <c:crossAx val="541352488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="243687808"/>
+        <c:axId val="541352488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="22000000000"/>
           <c:min val="0"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="&quot;$&quot;#,##0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="9525">
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="244222976"/>
+        <c:crossAx val="541347392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -2873,8 +2920,11 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -2886,7 +2936,17 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2910,12 +2970,15 @@
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2935,6 +2998,7 @@
               <a:schemeClr val="accent1"/>
             </a:solidFill>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>'New Money Issuance (Fig 3)'!$A$3:$A$19</c:f>
@@ -3075,6 +3139,7 @@
               <a:schemeClr val="accent3"/>
             </a:solidFill>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>'New Money Issuance (Fig 3)'!$A$3:$A$19</c:f>
@@ -3215,6 +3280,7 @@
               <a:schemeClr val="accent5"/>
             </a:solidFill>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>'New Money Issuance (Fig 3)'!$A$3:$A$19</c:f>
@@ -3355,6 +3421,7 @@
               <a:schemeClr val="accent6"/>
             </a:solidFill>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>'New Money Issuance (Fig 3)'!$A$3:$A$19</c:f>
@@ -3495,6 +3562,7 @@
               <a:schemeClr val="accent2"/>
             </a:solidFill>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>'New Money Issuance (Fig 3)'!$A$3:$A$19</c:f>
@@ -3635,6 +3703,7 @@
               <a:srgbClr val="8064A2"/>
             </a:solidFill>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>'New Money Issuance (Fig 3)'!$G$3:$G$19</c:f>
@@ -3696,19 +3765,29 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="243843456"/>
-        <c:axId val="243844992"/>
+        <c:axId val="541347784"/>
+        <c:axId val="541348176"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="243843456"/>
+        <c:axId val="541347784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr rot="-2160000"/>
@@ -3720,28 +3799,31 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="243844992"/>
+        <c:crossAx val="541348176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="243844992"/>
+        <c:axId val="541348176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="&quot;$&quot;#,##0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="9525">
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="243843456"/>
+        <c:crossAx val="541347784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -3752,8 +3834,11 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -3765,7 +3850,17 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3784,18 +3879,21 @@
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="4"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Debt Service (Fig 4,5)'!$B$2</c:f>
+              <c:f>'Debt Service Paid (Fig 4,5)'!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3809,9 +3907,10 @@
               <a:schemeClr val="accent1"/>
             </a:solidFill>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Debt Service (Fig 4,5)'!$A$3:$A$19</c:f>
+              <c:f>'Debt Service Paid (Fig 4,5)'!$A$3:$A$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -3871,7 +3970,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Debt Service (Fig 4,5)'!$B$3:$B$19</c:f>
+              <c:f>'Debt Service Paid (Fig 4,5)'!$B$3:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0</c:formatCode>
                 <c:ptCount val="17"/>
@@ -3935,7 +4034,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Debt Service (Fig 4,5)'!$C$2</c:f>
+              <c:f>'Debt Service Paid (Fig 4,5)'!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3949,9 +4048,10 @@
               <a:schemeClr val="accent3"/>
             </a:solidFill>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Debt Service (Fig 4,5)'!$A$3:$A$19</c:f>
+              <c:f>'Debt Service Paid (Fig 4,5)'!$A$3:$A$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -4011,7 +4111,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Debt Service (Fig 4,5)'!$C$3:$C$19</c:f>
+              <c:f>'Debt Service Paid (Fig 4,5)'!$C$3:$C$19</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0</c:formatCode>
                 <c:ptCount val="17"/>
@@ -4075,7 +4175,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Debt Service (Fig 4,5)'!$E$2</c:f>
+              <c:f>'Debt Service Paid (Fig 4,5)'!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4089,9 +4189,10 @@
               <a:schemeClr val="accent5"/>
             </a:solidFill>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Debt Service (Fig 4,5)'!$A$3:$A$19</c:f>
+              <c:f>'Debt Service Paid (Fig 4,5)'!$A$3:$A$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -4151,7 +4252,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Debt Service (Fig 4,5)'!$E$3:$E$19</c:f>
+              <c:f>'Debt Service Paid (Fig 4,5)'!$E$3:$E$19</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0</c:formatCode>
                 <c:ptCount val="17"/>
@@ -4179,7 +4280,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Debt Service (Fig 4,5)'!$F$2</c:f>
+              <c:f>'Debt Service Paid (Fig 4,5)'!$F$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4193,9 +4294,10 @@
               <a:schemeClr val="accent6"/>
             </a:solidFill>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Debt Service (Fig 4,5)'!$A$3:$A$19</c:f>
+              <c:f>'Debt Service Paid (Fig 4,5)'!$A$3:$A$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -4255,7 +4357,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Debt Service (Fig 4,5)'!$F$3:$F$19</c:f>
+              <c:f>'Debt Service Paid (Fig 4,5)'!$F$3:$F$19</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0</c:formatCode>
                 <c:ptCount val="17"/>
@@ -4280,7 +4382,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Debt Service (Fig 4,5)'!$D$2</c:f>
+              <c:f>'Debt Service Paid (Fig 4,5)'!$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4289,9 +4391,10 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Debt Service (Fig 4,5)'!$A$3:$A$19</c:f>
+              <c:f>'Debt Service Paid (Fig 4,5)'!$A$3:$A$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -4351,7 +4454,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Debt Service (Fig 4,5)'!$D$3:$D$19</c:f>
+              <c:f>'Debt Service Paid (Fig 4,5)'!$D$3:$D$19</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0</c:formatCode>
                 <c:ptCount val="17"/>
@@ -4364,7 +4467,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Debt Service (Fig 4,5)'!$G$2</c:f>
+              <c:f>'Debt Service Paid (Fig 4,5)'!$G$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4378,9 +4481,10 @@
               <a:schemeClr val="accent4"/>
             </a:solidFill>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Debt Service (Fig 4,5)'!$A$3:$A$19</c:f>
+              <c:f>'Debt Service Paid (Fig 4,5)'!$A$3:$A$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -4440,7 +4544,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Debt Service (Fig 4,5)'!$G$3:$G$19</c:f>
+              <c:f>'Debt Service Paid (Fig 4,5)'!$G$3:$G$19</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0</c:formatCode>
                 <c:ptCount val="17"/>
@@ -4499,42 +4603,55 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="244235648"/>
-        <c:axId val="244270208"/>
+        <c:axId val="541352096"/>
+        <c:axId val="541348960"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="244235648"/>
+        <c:axId val="541352096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="244270208"/>
+        <c:crossAx val="541348960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="244270208"/>
+        <c:axId val="541348960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="&quot;$&quot;#,##0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="9525">
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="244235648"/>
+        <c:crossAx val="541352096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -4549,8 +4666,11 @@
         <c:delete val="1"/>
       </c:legendEntry>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -4562,45 +4682,90 @@
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
         <c:rich>
-          <a:bodyPr/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1200"/>
-              <a:t>Debt Service Due on Bonds and State</a:t>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Debt Service Due on Bonds and State COPs by Fiscal year ($ millions)</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1200" baseline="0"/>
-              <a:t> COPs by Fiscal year ($</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1200"/>
-              <a:t> millions)</a:t>
-            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="4"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Debt Service (Fig 4,5)'!$B$2</c:f>
+              <c:f>'Debt Service Due (Fig 4,5)'!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4613,13 +4778,18 @@
             <a:solidFill>
               <a:schemeClr val="accent1"/>
             </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Debt Service (Fig 4,5)'!$A$19:$A$46</c:f>
+              <c:f>'Debt Service Due (Fig 4,5)'!$A$3:$A$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>2016</c:v>
                 </c:pt>
@@ -4703,16 +4873,40 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>2043</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2047</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2050</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2051</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Debt Service (Fig 4,5)'!$B$19:$B$46</c:f>
+              <c:f>'Debt Service Due (Fig 4,5)'!$B$3:$B$38</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>1178368285.2</c:v>
                 </c:pt>
@@ -4795,6 +4989,30 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4802,11 +5020,11 @@
           </c:val>
         </c:ser>
         <c:ser>
-          <c:idx val="5"/>
+          <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Debt Service (Fig 4,5)'!$C$2</c:f>
+              <c:f>'Debt Service Due (Fig 4,5)'!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4819,13 +5037,18 @@
             <a:solidFill>
               <a:schemeClr val="accent3"/>
             </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Debt Service (Fig 4,5)'!$A$19:$A$46</c:f>
+              <c:f>'Debt Service Due (Fig 4,5)'!$A$3:$A$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>2016</c:v>
                 </c:pt>
@@ -4909,16 +5132,40 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>2043</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2047</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2050</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2051</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Debt Service (Fig 4,5)'!$C$19:$C$46</c:f>
+              <c:f>'Debt Service Due (Fig 4,5)'!$C$3:$C$38</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>594503126.12</c:v>
                 </c:pt>
@@ -5002,21 +5249,45 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>31088028.129999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
+          <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Debt Service (Fig 4,5)'!$E$2</c:f>
+              <c:f>'Debt Service Due (Fig 4,5)'!$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Triple Pledge</c:v>
+                  <c:v>TIFIA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5025,13 +5296,18 @@
             <a:solidFill>
               <a:schemeClr val="accent5"/>
             </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Debt Service (Fig 4,5)'!$A$19:$A$46</c:f>
+              <c:f>'Debt Service Due (Fig 4,5)'!$A$3:$A$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>2016</c:v>
                 </c:pt>
@@ -5115,123 +5391,181 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>2043</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2047</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2050</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2051</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Debt Service (Fig 4,5)'!$E$19:$E$46</c:f>
+              <c:f>'Debt Service Due (Fig 4,5)'!$D$3:$D$38</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0</c:formatCode>
-                <c:ptCount val="28"/>
-                <c:pt idx="0">
-                  <c:v>26024975</c:v>
-                </c:pt>
+                <c:ptCount val="36"/>
                 <c:pt idx="1">
-                  <c:v>36859975</c:v>
+                  <c:v>8144284.04</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>36858225</c:v>
+                  <c:v>8144284.04</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>36859475</c:v>
+                  <c:v>8144284.0599999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>36857225</c:v>
+                  <c:v>8144284.04</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>36855225</c:v>
+                  <c:v>8144284.0499999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>36856975</c:v>
+                  <c:v>8144284.0199999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>36855725</c:v>
+                  <c:v>8144284.0199999996</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>36854975</c:v>
+                  <c:v>8144284.04</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>36857975</c:v>
+                  <c:v>8144284.04</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>36857725</c:v>
+                  <c:v>8144284.0499999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>36855462.5</c:v>
+                  <c:v>8144284.0499999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>36857000</c:v>
+                  <c:v>8144284.0300000003</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>36856250</c:v>
+                  <c:v>8144284.04</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>36859000</c:v>
+                  <c:v>8144284.04</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>36857750</c:v>
+                  <c:v>8144284.04</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>36855250</c:v>
+                  <c:v>8144284.0300000003</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>36859000</c:v>
+                  <c:v>8144284.04</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>36856000</c:v>
+                  <c:v>8144284.0300000003</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>36858750</c:v>
+                  <c:v>8144284.04</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>36859000</c:v>
+                  <c:v>8144284.0499999998</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>36858750</c:v>
+                  <c:v>8144284.0199999996</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>36859750</c:v>
+                  <c:v>8144284.0099999998</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>36858500</c:v>
+                  <c:v>8144284.0199999996</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>36856500</c:v>
+                  <c:v>8144284</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>36855000</c:v>
+                  <c:v>8144284.04</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>14615833.210000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>14615833.210000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>14615833.23</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>14615833.23</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>14615833.24</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>14615833.24</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>14615833.25</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>14615833.23</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>14615833.26</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>14615833.18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Debt Service (Fig 4,5)'!$F$2</c:f>
+              <c:f>'Debt Service Due (Fig 4,5)'!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>GARVEEs</c:v>
+                  <c:v>Triple Pledge</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent6"/>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
             </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Debt Service (Fig 4,5)'!$A$19:$A$46</c:f>
+              <c:f>'Debt Service Due (Fig 4,5)'!$A$3:$A$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>2016</c:v>
                 </c:pt>
@@ -5315,70 +5649,154 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>2043</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2047</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2050</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2051</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Debt Service (Fig 4,5)'!$F$19:$F$46</c:f>
+              <c:f>'Debt Service Due (Fig 4,5)'!$E$3:$E$38</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>100144175</c:v>
+                  <c:v>26024975</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100070925</c:v>
+                  <c:v>36859975</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100001150</c:v>
+                  <c:v>36858225</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>99899375</c:v>
+                  <c:v>36859475</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>99804250</c:v>
+                  <c:v>36857225</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>99717625</c:v>
+                  <c:v>36855225</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>99619937.5</c:v>
+                  <c:v>36856975</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>99508625</c:v>
+                  <c:v>36855725</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>99397125</c:v>
+                  <c:v>36854975</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>99307250</c:v>
+                  <c:v>36857975</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>36857725</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>36855462.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>36857000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>36856250</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>36859000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>36857750</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>36855250</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>36859000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>36856000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>36858750</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>36859000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>36858750</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>36859750</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>36858500</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>36856500</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>36855000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="4"/>
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Debt Service (Fig 4,5)'!$D$2</c:f>
+              <c:f>'Debt Service Due (Fig 4,5)'!$F$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TIFIA</c:v>
+                  <c:v>GARVEEs</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Debt Service (Fig 4,5)'!$A$19:$A$46</c:f>
+              <c:f>'Debt Service Due (Fig 4,5)'!$A$3:$A$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>2016</c:v>
                 </c:pt>
@@ -5462,107 +5880,80 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>2043</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2047</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2050</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2051</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Debt Service (Fig 4,5)'!$D$19:$D$46</c:f>
+              <c:f>'Debt Service Due (Fig 4,5)'!$F$3:$F$38</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>100144175</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>8144284.04</c:v>
+                  <c:v>100070925</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8144284.04</c:v>
+                  <c:v>100001150</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8144284.0599999996</c:v>
+                  <c:v>99899375</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8144284.04</c:v>
+                  <c:v>99804250</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8144284.0499999998</c:v>
+                  <c:v>99717625</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8144284.0199999996</c:v>
+                  <c:v>99619937.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8144284.0199999996</c:v>
+                  <c:v>99508625</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8144284.04</c:v>
+                  <c:v>99397125</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8144284.04</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>8144284.0499999998</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8144284.0499999998</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>8144284.0300000003</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>8144284.04</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>8144284.04</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>8144284.04</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>8144284.0300000003</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>8144284.04</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>8144284.0300000003</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>8144284.04</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>8144284.0499999998</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>8144284.0199999996</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>8144284.0099999998</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>8144284.0199999996</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>8144284</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>8144284.04</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>14615833.210000001</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>14615833.210000001</c:v>
+                  <c:v>99307250</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:ser>
-          <c:idx val="6"/>
+          <c:idx val="5"/>
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Debt Service (Fig 4,5)'!$G$2</c:f>
+              <c:f>'Debt Service Due (Fig 4,5)'!$G$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5573,15 +5964,22 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent4"/>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
             </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Debt Service (Fig 4,5)'!$A$19:$A$46</c:f>
+              <c:f>'Debt Service Due (Fig 4,5)'!$A$3:$A$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>2016</c:v>
                 </c:pt>
@@ -5665,16 +6063,40 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>2043</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2047</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2050</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2051</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Debt Service (Fig 4,5)'!$G$19:$G$46</c:f>
+              <c:f>'Debt Service Due (Fig 4,5)'!$G$3:$G$38</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>102854798.34900001</c:v>
                 </c:pt>
@@ -5745,62 +6167,201 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:gapWidth val="75"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="244323840"/>
-        <c:axId val="244325376"/>
+        <c:axId val="590245584"/>
+        <c:axId val="590244408"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="244323840"/>
+        <c:axId val="590245584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="244325376"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="590244408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="244325376"/>
+        <c:axId val="590244408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="&quot;$&quot;#,##0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln w="9525">
+          <a:noFill/>
+          <a:ln>
             <a:noFill/>
           </a:ln>
+          <a:effectLst/>
         </c:spPr>
-        <c:crossAx val="244323840"/>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="590245584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
           <c:builtInUnit val="millions"/>
         </c:dispUnits>
       </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:legendEntry>
-        <c:idx val="4"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
       <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5808,8 +6369,19 @@
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -5825,12 +6397,14 @@
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:v>Debt Service</c:v>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>[1]Sheet1!$C$4:$T$4</c:f>
@@ -5958,13 +6532,22 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="100"/>
-        <c:axId val="244497408"/>
-        <c:axId val="244503296"/>
+        <c:axId val="541166208"/>
+        <c:axId val="429225384"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="1"/>
@@ -6103,19 +6686,31 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="244505216"/>
-        <c:axId val="244523392"/>
+        <c:smooth val="0"/>
+        <c:axId val="542623592"/>
+        <c:axId val="542620848"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="244497408"/>
+        <c:axId val="541166208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr rot="-2040000" vert="horz"/>
@@ -6127,20 +6722,24 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="244503296"/>
+        <c:crossAx val="429225384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="244503296"/>
+        <c:axId val="429225384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="\$#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr rot="0" vert="horz"/>
@@ -6152,7 +6751,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="244497408"/>
+        <c:crossAx val="541166208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -6160,28 +6759,34 @@
         </c:dispUnits>
       </c:valAx>
       <c:catAx>
-        <c:axId val="244505216"/>
+        <c:axId val="542623592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="244523392"/>
+        <c:crossAx val="542620848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="244523392"/>
+        <c:axId val="542620848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.12000000000000002"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="r"/>
         <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr rot="0" vert="horz"/>
@@ -6193,7 +6798,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="244505216"/>
+        <c:crossAx val="542623592"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6236,6 +6841,7 @@
           <c:h val="6.8767834538393913E-2"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -6249,6 +6855,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -6284,8 +6891,19 @@
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -6301,6 +6919,7 @@
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -6314,6 +6933,7 @@
               </a:srgbClr>
             </a:solidFill>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>[2]Sheet1!$K$1:$AL$1</c:f>
@@ -6522,6 +7142,7 @@
               </a:srgbClr>
             </a:solidFill>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>[2]Sheet1!$K$1:$AL$1</c:f>
@@ -6709,13 +7330,22 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="100"/>
-        <c:axId val="244822784"/>
-        <c:axId val="244824320"/>
+        <c:axId val="542616928"/>
+        <c:axId val="542616536"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
@@ -6893,6 +7523,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -7042,19 +7673,31 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="244834688"/>
-        <c:axId val="244836224"/>
+        <c:smooth val="0"/>
+        <c:axId val="542623984"/>
+        <c:axId val="542614968"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="244822784"/>
+        <c:axId val="542616928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr rot="-2040000" vert="horz"/>
@@ -7066,21 +7709,24 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="244824320"/>
+        <c:crossAx val="542616536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="244824320"/>
+        <c:axId val="542616536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="\$#,##0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr rot="0" vert="horz"/>
@@ -7092,7 +7738,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="244822784"/>
+        <c:crossAx val="542616928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -7100,27 +7746,33 @@
         </c:dispUnits>
       </c:valAx>
       <c:catAx>
-        <c:axId val="244834688"/>
+        <c:axId val="542623984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="244836224"/>
+        <c:crossAx val="542614968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="244836224"/>
+        <c:axId val="542614968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="r"/>
         <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -7132,7 +7784,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="244834688"/>
+        <c:crossAx val="542623984"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7163,6 +7815,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:ln>
@@ -7191,6 +7844,548 @@
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
 </c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent5"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7435,13 +8630,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>384174</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>40217</xdr:rowOff>
+      <xdr:rowOff>135467</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>117474</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>116417</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>21167</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7460,18 +8655,23 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>402168</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>21167</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>104774</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>135468</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>97367</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>176211</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7484,7 +8684,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7493,7 +8693,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7616,7 +8816,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
@@ -7963,7 +9163,7 @@
 </c:userShapes>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -8089,7 +9289,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
@@ -8478,7 +9678,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -8552,7 +9752,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -8698,7 +9898,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -8730,9 +9930,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -8764,6 +9965,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -8939,14 +10141,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H20"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
     <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
@@ -8955,12 +10157,12 @@
     <col min="8" max="8" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="15.75">
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -8986,7 +10188,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2000</v>
       </c>
@@ -9011,7 +10213,7 @@
         <v>7736226392.0699997</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2001</v>
       </c>
@@ -9036,7 +10238,7 @@
         <v>8157368591.5</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2002</v>
       </c>
@@ -9061,7 +10263,7 @@
         <v>8653955854.3699989</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2003</v>
       </c>
@@ -9086,7 +10288,7 @@
         <v>9053702197.5999985</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2004</v>
       </c>
@@ -9111,7 +10313,7 @@
         <v>9827860771.1000004</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2005</v>
       </c>
@@ -9136,7 +10338,7 @@
         <v>10518189255.98</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2006</v>
       </c>
@@ -9161,7 +10363,7 @@
         <v>11130131442.849998</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2007</v>
       </c>
@@ -9186,7 +10388,7 @@
         <v>12271128369</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2008</v>
       </c>
@@ -9211,7 +10413,7 @@
         <v>13617173279.75</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2009</v>
       </c>
@@ -9236,7 +10438,7 @@
         <v>14777352501.65</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2010</v>
       </c>
@@ -9261,7 +10463,7 @@
         <v>17292556460.32</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2011</v>
       </c>
@@ -9286,7 +10488,7 @@
         <v>17279162783.279999</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2012</v>
       </c>
@@ -9311,7 +10513,7 @@
         <v>18843247768.490002</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2013</v>
       </c>
@@ -9336,7 +10538,7 @@
         <v>19305336393.100101</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2014</v>
       </c>
@@ -9361,7 +10563,7 @@
         <v>20308710850.110001</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2015</v>
       </c>
@@ -9388,7 +10590,7 @@
         <v>20311153904.760002</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2016</v>
       </c>
@@ -9423,14 +10625,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
@@ -9438,12 +10640,12 @@
     <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -9466,7 +10668,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2000</v>
       </c>
@@ -9489,7 +10691,7 @@
         <v>235318185.93000001</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2001</v>
       </c>
@@ -9512,7 +10714,7 @@
         <v>98964265.260000005</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2002</v>
       </c>
@@ -9535,7 +10737,7 @@
         <v>30535544.879999999</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2003</v>
       </c>
@@ -9558,7 +10760,7 @@
         <v>104802035.58</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2004</v>
       </c>
@@ -9581,7 +10783,7 @@
         <v>31095537.530000001</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2005</v>
       </c>
@@ -9604,7 +10806,7 @@
         <v>83728383.450000003</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2006</v>
       </c>
@@ -9627,7 +10829,7 @@
         <v>66919750.100000001</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2007</v>
       </c>
@@ -9650,7 +10852,7 @@
         <v>107971301.83</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2008</v>
       </c>
@@ -9673,7 +10875,7 @@
         <v>69524190.06189999</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2009</v>
       </c>
@@ -9696,7 +10898,7 @@
         <v>125557650.58</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2010</v>
       </c>
@@ -9719,7 +10921,7 @@
         <v>154511838.69999999</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2011</v>
       </c>
@@ -9742,7 +10944,7 @@
         <v>78202852.069999993</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2012</v>
       </c>
@@ -9765,7 +10967,7 @@
         <v>67688982.719999999</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2013</v>
       </c>
@@ -9788,7 +10990,7 @@
         <v>198607715.70999998</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2014</v>
       </c>
@@ -9811,7 +11013,7 @@
         <v>38201723.93</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2015</v>
       </c>
@@ -9834,7 +11036,7 @@
         <v>80058283.25</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2016</v>
       </c>
@@ -9864,14 +11066,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G54"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.42578125" customWidth="1"/>
     <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
@@ -9880,7 +11082,7 @@
     <col min="6" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -9903,7 +11105,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2000</v>
       </c>
@@ -9920,7 +11122,7 @@
         <v>50984601.289999999</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2001</v>
       </c>
@@ -9937,7 +11139,7 @@
         <v>53442596.219999999</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2002</v>
       </c>
@@ -9954,7 +11156,7 @@
         <v>59999242.950000003</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2003</v>
       </c>
@@ -9971,7 +11173,7 @@
         <v>60421663.700000003</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2004</v>
       </c>
@@ -9988,7 +11190,7 @@
         <v>62118223.560000002</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2005</v>
       </c>
@@ -10005,7 +11207,7 @@
         <v>69474117.870000005</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2006</v>
       </c>
@@ -10022,7 +11224,7 @@
         <v>70750956.75</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2007</v>
       </c>
@@ -10039,7 +11241,7 @@
         <v>77296084.019999996</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2008</v>
       </c>
@@ -10056,7 +11258,7 @@
         <v>84604174.769999996</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2009</v>
       </c>
@@ -10073,7 +11275,7 @@
         <v>101694647.491</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2010</v>
       </c>
@@ -10090,7 +11292,7 @@
         <v>110399953.45469999</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2011</v>
       </c>
@@ -10107,7 +11309,7 @@
         <v>81436342.444999993</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2012</v>
       </c>
@@ -10126,7 +11328,7 @@
         <v>79705772.044699997</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2013</v>
       </c>
@@ -10147,7 +11349,7 @@
         <v>85061216.382200003</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2014</v>
       </c>
@@ -10168,7 +11370,7 @@
         <v>93704015.001900002</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2015</v>
       </c>
@@ -10189,7 +11391,7 @@
         <v>98593253.105499998</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2016</v>
       </c>
@@ -10210,694 +11412,269 @@
         <v>102854798.34900001</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
-      <c r="A20">
-        <v>2017</v>
-      </c>
-      <c r="B20" s="4">
-        <v>1222674790.77</v>
-      </c>
-      <c r="C20" s="4">
-        <v>628803456.66999996</v>
-      </c>
-      <c r="D20" s="4">
-        <v>8144284.04</v>
-      </c>
-      <c r="E20" s="4">
-        <v>36859975</v>
-      </c>
-      <c r="F20" s="4">
-        <v>100070925</v>
-      </c>
-      <c r="G20" s="4">
-        <v>100747771.329</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21">
-        <v>2018</v>
-      </c>
-      <c r="B21" s="4">
-        <v>1178130647.26</v>
-      </c>
-      <c r="C21" s="4">
-        <v>623799314.53999996</v>
-      </c>
-      <c r="D21" s="4">
-        <v>8144284.04</v>
-      </c>
-      <c r="E21" s="4">
-        <v>36858225</v>
-      </c>
-      <c r="F21" s="4">
-        <v>100001150</v>
-      </c>
-      <c r="G21" s="4">
-        <v>95855046.249500006</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22">
-        <v>2019</v>
-      </c>
-      <c r="B22" s="4">
-        <v>1137395140.26</v>
-      </c>
-      <c r="C22" s="4">
-        <v>624371544.76999998</v>
-      </c>
-      <c r="D22" s="4">
-        <v>8144284.0599999996</v>
-      </c>
-      <c r="E22" s="4">
-        <v>36859475</v>
-      </c>
-      <c r="F22" s="4">
-        <v>99899375</v>
-      </c>
-      <c r="G22" s="4">
-        <v>90027162.319999993</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23">
-        <v>2020</v>
-      </c>
-      <c r="B23" s="4">
-        <v>1107279878.51</v>
-      </c>
-      <c r="C23" s="4">
-        <v>624802575.41999996</v>
-      </c>
-      <c r="D23" s="4">
-        <v>8144284.04</v>
-      </c>
-      <c r="E23" s="4">
-        <v>36857225</v>
-      </c>
-      <c r="F23" s="4">
-        <v>99804250</v>
-      </c>
-      <c r="G23" s="4">
-        <v>82562170.730000004</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24">
-        <v>2021</v>
-      </c>
-      <c r="B24" s="4">
-        <v>1044286503.51</v>
-      </c>
-      <c r="C24" s="4">
-        <v>614281090.75999999</v>
-      </c>
-      <c r="D24" s="4">
-        <v>8144284.0499999998</v>
-      </c>
-      <c r="E24" s="4">
-        <v>36855225</v>
-      </c>
-      <c r="F24" s="4">
-        <v>99717625</v>
-      </c>
-      <c r="G24" s="4">
-        <v>69701076.790000007</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25">
-        <v>2022</v>
-      </c>
-      <c r="B25" s="4">
-        <v>990627157.25999999</v>
-      </c>
-      <c r="C25" s="4">
-        <v>610725723.53999996</v>
-      </c>
-      <c r="D25" s="4">
-        <v>8144284.0199999996</v>
-      </c>
-      <c r="E25" s="4">
-        <v>36856975</v>
-      </c>
-      <c r="F25" s="4">
-        <v>99619937.5</v>
-      </c>
-      <c r="G25" s="4">
-        <v>64012338.82</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26">
-        <v>2023</v>
-      </c>
-      <c r="B26" s="4">
-        <v>968222239.25999999</v>
-      </c>
-      <c r="C26" s="4">
-        <v>599653430.29999995</v>
-      </c>
-      <c r="D26" s="4">
-        <v>8144284.0199999996</v>
-      </c>
-      <c r="E26" s="4">
-        <v>36855725</v>
-      </c>
-      <c r="F26" s="4">
-        <v>99508625</v>
-      </c>
-      <c r="G26" s="4">
-        <v>58624055.469999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27">
-        <v>2024</v>
-      </c>
-      <c r="B27" s="4">
-        <v>942659644.75999999</v>
-      </c>
-      <c r="C27" s="4">
-        <v>596936926.13</v>
-      </c>
-      <c r="D27" s="4">
-        <v>8144284.04</v>
-      </c>
-      <c r="E27" s="4">
-        <v>36854975</v>
-      </c>
-      <c r="F27" s="4">
-        <v>99397125</v>
-      </c>
-      <c r="G27" s="4">
-        <v>44382436.369999997</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28">
-        <v>2025</v>
-      </c>
-      <c r="B28" s="4">
-        <v>894823096.25999999</v>
-      </c>
-      <c r="C28" s="4">
-        <v>594901375.90999997</v>
-      </c>
-      <c r="D28" s="4">
-        <v>8144284.04</v>
-      </c>
-      <c r="E28" s="4">
-        <v>36857975</v>
-      </c>
-      <c r="F28" s="4">
-        <v>99307250</v>
-      </c>
-      <c r="G28" s="4">
-        <v>40442993.579999998</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29">
-        <v>2026</v>
-      </c>
-      <c r="B29" s="4">
-        <v>860374538.25999999</v>
-      </c>
-      <c r="C29" s="4">
-        <v>591732486.34000003</v>
-      </c>
-      <c r="D29" s="4">
-        <v>8144284.0499999998</v>
-      </c>
-      <c r="E29" s="4">
-        <v>36857725</v>
-      </c>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
       <c r="F29" s="4"/>
-      <c r="G29" s="4">
-        <v>39525499.840000004</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30">
-        <v>2027</v>
-      </c>
-      <c r="B30" s="4">
-        <v>819265731.25999999</v>
-      </c>
-      <c r="C30" s="4">
-        <v>576408627.14999998</v>
-      </c>
-      <c r="D30" s="4">
-        <v>8144284.0499999998</v>
-      </c>
-      <c r="E30" s="4">
-        <v>36855462.5</v>
-      </c>
+      <c r="G29" s="4"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
       <c r="F30" s="4"/>
-      <c r="G30" s="4">
-        <v>34654973.189999998</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31">
-        <v>2028</v>
-      </c>
-      <c r="B31" s="4">
-        <v>778158918.75999999</v>
-      </c>
-      <c r="C31" s="4">
-        <v>553935148.29999995</v>
-      </c>
-      <c r="D31" s="4">
-        <v>8144284.0300000003</v>
-      </c>
-      <c r="E31" s="4">
-        <v>36857000</v>
-      </c>
+      <c r="G30" s="4"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
       <c r="F31" s="4"/>
-      <c r="G31" s="4">
-        <v>32263916.940000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32">
-        <v>2029</v>
-      </c>
-      <c r="B32" s="4">
-        <v>754425668.75999999</v>
-      </c>
-      <c r="C32" s="4">
-        <v>542554595.27999997</v>
-      </c>
-      <c r="D32" s="4">
-        <v>8144284.04</v>
-      </c>
-      <c r="E32" s="4">
-        <v>36856250</v>
-      </c>
+      <c r="G31" s="4"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
       <c r="F32" s="4"/>
-      <c r="G32" s="4">
-        <v>27921353.800000001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33">
-        <v>2030</v>
-      </c>
-      <c r="B33" s="4">
-        <v>713192962.50999999</v>
-      </c>
-      <c r="C33" s="4">
-        <v>525715275.04000002</v>
-      </c>
-      <c r="D33" s="4">
-        <v>8144284.04</v>
-      </c>
-      <c r="E33" s="4">
-        <v>36859000</v>
-      </c>
+      <c r="G32" s="4"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
       <c r="F33" s="4"/>
-      <c r="G33" s="4">
-        <v>19690921.289999999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34">
-        <v>2031</v>
-      </c>
-      <c r="B34" s="4">
-        <v>666572531.25999999</v>
-      </c>
-      <c r="C34" s="4">
-        <v>422258249.72000003</v>
-      </c>
-      <c r="D34" s="4">
-        <v>8144284.04</v>
-      </c>
-      <c r="E34" s="4">
-        <v>36857750</v>
-      </c>
+      <c r="G33" s="4"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
       <c r="F34" s="4"/>
-      <c r="G34" s="4">
-        <v>16981606.280000001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35">
-        <v>2032</v>
-      </c>
-      <c r="B35" s="4">
-        <v>631323706.25999999</v>
-      </c>
-      <c r="C35" s="4">
-        <v>390391422.69999999</v>
-      </c>
-      <c r="D35" s="4">
-        <v>8144284.0300000003</v>
-      </c>
-      <c r="E35" s="4">
-        <v>36855250</v>
-      </c>
+      <c r="G34" s="4"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
       <c r="F35" s="4"/>
-      <c r="G35" s="4">
-        <v>14415931.27</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36">
-        <v>2033</v>
-      </c>
-      <c r="B36" s="4">
-        <v>582025268.75999999</v>
-      </c>
-      <c r="C36" s="4">
-        <v>352926733.10000002</v>
-      </c>
-      <c r="D36" s="4">
-        <v>8144284.04</v>
-      </c>
-      <c r="E36" s="4">
-        <v>36859000</v>
-      </c>
+      <c r="G35" s="4"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
       <c r="F36" s="4"/>
-      <c r="G36" s="4">
-        <v>8469031.2599999998</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37">
-        <v>2034</v>
-      </c>
-      <c r="B37" s="4">
-        <v>492265581.25999999</v>
-      </c>
-      <c r="C37" s="4">
-        <v>303572205.07999998</v>
-      </c>
-      <c r="D37" s="4">
-        <v>8144284.0300000003</v>
-      </c>
-      <c r="E37" s="4">
-        <v>36856000</v>
-      </c>
+      <c r="G36" s="4"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
       <c r="F37" s="4"/>
-      <c r="G37" s="4">
-        <v>8156675</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38">
-        <v>2035</v>
-      </c>
-      <c r="B38" s="4">
-        <v>405458893.75999999</v>
-      </c>
-      <c r="C38" s="4">
-        <v>272065655.56</v>
-      </c>
-      <c r="D38" s="4">
-        <v>8144284.04</v>
-      </c>
-      <c r="E38" s="4">
-        <v>36858750</v>
-      </c>
+      <c r="G37" s="4"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
       <c r="F38" s="4"/>
-      <c r="G38" s="4">
-        <v>7052400</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39">
-        <v>2036</v>
-      </c>
-      <c r="B39" s="4">
-        <v>329559253.13</v>
-      </c>
-      <c r="C39" s="4">
-        <v>242545105.71000001</v>
-      </c>
-      <c r="D39" s="4">
-        <v>8144284.0499999998</v>
-      </c>
-      <c r="E39" s="4">
-        <v>36859000</v>
-      </c>
+      <c r="G38" s="4"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
       <c r="F39" s="4"/>
-      <c r="G39" s="4">
-        <v>7056718.75</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40">
-        <v>2037</v>
-      </c>
-      <c r="B40" s="4">
-        <v>265649025</v>
-      </c>
-      <c r="C40" s="4">
-        <v>241020047.37</v>
-      </c>
-      <c r="D40" s="4">
-        <v>8144284.0199999996</v>
-      </c>
-      <c r="E40" s="4">
-        <v>36858750</v>
-      </c>
+      <c r="G39" s="4"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
       <c r="F40" s="4"/>
-      <c r="G40" s="4">
-        <v>5117000</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41">
-        <v>2038</v>
-      </c>
-      <c r="B41" s="4">
-        <v>212597700</v>
-      </c>
-      <c r="C41" s="4">
-        <v>239422372.22</v>
-      </c>
-      <c r="D41" s="4">
-        <v>8144284.0099999998</v>
-      </c>
-      <c r="E41" s="4">
-        <v>36859750</v>
-      </c>
+      <c r="G40" s="4"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" spans="1:7">
-      <c r="A42">
-        <v>2039</v>
-      </c>
-      <c r="B42" s="4">
-        <v>177151375</v>
-      </c>
-      <c r="C42" s="4">
-        <v>237803513.28</v>
-      </c>
-      <c r="D42" s="4">
-        <v>8144284.0199999996</v>
-      </c>
-      <c r="E42" s="4">
-        <v>36858500</v>
-      </c>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
       <c r="F42" s="4"/>
     </row>
-    <row r="43" spans="1:7">
-      <c r="A43">
-        <v>2040</v>
-      </c>
-      <c r="B43" s="4">
-        <v>105943656.25</v>
-      </c>
-      <c r="C43" s="4">
-        <v>197878137.47999999</v>
-      </c>
-      <c r="D43" s="4">
-        <v>8144284</v>
-      </c>
-      <c r="E43" s="4">
-        <v>36856500</v>
-      </c>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
       <c r="F43" s="4"/>
     </row>
-    <row r="44" spans="1:7">
-      <c r="A44">
-        <v>2041</v>
-      </c>
-      <c r="B44" s="4">
-        <v>61216781.25</v>
-      </c>
-      <c r="C44" s="4">
-        <v>152034611.75999999</v>
-      </c>
-      <c r="D44" s="4">
-        <v>8144284.04</v>
-      </c>
-      <c r="E44" s="4">
-        <v>36855000</v>
-      </c>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
       <c r="F44" s="4"/>
     </row>
-    <row r="45" spans="1:7">
-      <c r="A45">
-        <v>2042</v>
-      </c>
-      <c r="B45" s="4">
-        <v>0</v>
-      </c>
-      <c r="C45" s="4">
-        <v>58202081.259999998</v>
-      </c>
-      <c r="D45" s="4">
-        <v>14615833.210000001</v>
-      </c>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
     </row>
-    <row r="46" spans="1:7">
-      <c r="A46">
-        <v>2043</v>
-      </c>
-      <c r="B46" s="4">
-        <v>0</v>
-      </c>
-      <c r="C46" s="4">
-        <v>31088028.129999999</v>
-      </c>
-      <c r="D46" s="4">
-        <v>14615833.210000001</v>
-      </c>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
     </row>
-    <row r="47" spans="1:7">
-      <c r="A47">
-        <v>2044</v>
-      </c>
-      <c r="B47" s="4">
-        <v>0</v>
-      </c>
-      <c r="C47" s="4">
-        <v>0</v>
-      </c>
-      <c r="D47" s="4">
-        <v>14615833.23</v>
-      </c>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
     </row>
-    <row r="48" spans="1:7">
-      <c r="A48">
-        <v>2045</v>
-      </c>
-      <c r="B48" s="4">
-        <v>0</v>
-      </c>
-      <c r="C48" s="4">
-        <v>0</v>
-      </c>
-      <c r="D48" s="4">
-        <v>14615833.23</v>
-      </c>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
     </row>
-    <row r="49" spans="1:6">
-      <c r="A49">
-        <v>2046</v>
-      </c>
-      <c r="B49" s="4">
-        <v>0</v>
-      </c>
-      <c r="C49" s="4">
-        <v>0</v>
-      </c>
-      <c r="D49" s="4">
-        <v>14615833.24</v>
-      </c>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
     </row>
-    <row r="50" spans="1:6">
-      <c r="A50">
-        <v>2047</v>
-      </c>
-      <c r="B50" s="4">
-        <v>0</v>
-      </c>
-      <c r="C50" s="4">
-        <v>0</v>
-      </c>
-      <c r="D50" s="4">
-        <v>14615833.24</v>
-      </c>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
     </row>
-    <row r="51" spans="1:6">
-      <c r="A51">
-        <v>2048</v>
-      </c>
-      <c r="B51" s="4">
-        <v>0</v>
-      </c>
-      <c r="C51" s="4">
-        <v>0</v>
-      </c>
-      <c r="D51" s="4">
-        <v>14615833.25</v>
-      </c>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
     </row>
-    <row r="52" spans="1:6">
-      <c r="A52">
-        <v>2049</v>
-      </c>
-      <c r="B52" s="4">
-        <v>0</v>
-      </c>
-      <c r="C52" s="4">
-        <v>0</v>
-      </c>
-      <c r="D52" s="4">
-        <v>14615833.23</v>
-      </c>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
     </row>
-    <row r="53" spans="1:6">
-      <c r="A53">
-        <v>2050</v>
-      </c>
-      <c r="B53" s="4">
-        <v>0</v>
-      </c>
-      <c r="C53" s="4">
-        <v>0</v>
-      </c>
-      <c r="D53" s="4">
-        <v>14615833.26</v>
-      </c>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
     </row>
-    <row r="54" spans="1:6">
-      <c r="A54">
-        <v>2051</v>
-      </c>
-      <c r="B54" s="4">
-        <v>0</v>
-      </c>
-      <c r="C54" s="4">
-        <v>0</v>
-      </c>
-      <c r="D54" s="4">
-        <v>14615833.18</v>
-      </c>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
     </row>
@@ -10908,14 +11685,773 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:G38"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2016</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1178368285.2</v>
+      </c>
+      <c r="C3" s="4">
+        <v>594503126.12</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4">
+        <v>26024975</v>
+      </c>
+      <c r="F3" s="4">
+        <v>100144175</v>
+      </c>
+      <c r="G3" s="4">
+        <v>102854798.34900001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2017</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1222674790.77</v>
+      </c>
+      <c r="C4" s="4">
+        <v>628803456.66999996</v>
+      </c>
+      <c r="D4" s="4">
+        <v>8144284.04</v>
+      </c>
+      <c r="E4" s="4">
+        <v>36859975</v>
+      </c>
+      <c r="F4" s="4">
+        <v>100070925</v>
+      </c>
+      <c r="G4" s="4">
+        <v>100747771.329</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2018</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1178130647.26</v>
+      </c>
+      <c r="C5" s="4">
+        <v>623799314.53999996</v>
+      </c>
+      <c r="D5" s="4">
+        <v>8144284.04</v>
+      </c>
+      <c r="E5" s="4">
+        <v>36858225</v>
+      </c>
+      <c r="F5" s="4">
+        <v>100001150</v>
+      </c>
+      <c r="G5" s="4">
+        <v>95855046.249500006</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2019</v>
+      </c>
+      <c r="B6" s="4">
+        <v>1137395140.26</v>
+      </c>
+      <c r="C6" s="4">
+        <v>624371544.76999998</v>
+      </c>
+      <c r="D6" s="4">
+        <v>8144284.0599999996</v>
+      </c>
+      <c r="E6" s="4">
+        <v>36859475</v>
+      </c>
+      <c r="F6" s="4">
+        <v>99899375</v>
+      </c>
+      <c r="G6" s="4">
+        <v>90027162.319999993</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2020</v>
+      </c>
+      <c r="B7" s="4">
+        <v>1107279878.51</v>
+      </c>
+      <c r="C7" s="4">
+        <v>624802575.41999996</v>
+      </c>
+      <c r="D7" s="4">
+        <v>8144284.04</v>
+      </c>
+      <c r="E7" s="4">
+        <v>36857225</v>
+      </c>
+      <c r="F7" s="4">
+        <v>99804250</v>
+      </c>
+      <c r="G7" s="4">
+        <v>82562170.730000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2021</v>
+      </c>
+      <c r="B8" s="4">
+        <v>1044286503.51</v>
+      </c>
+      <c r="C8" s="4">
+        <v>614281090.75999999</v>
+      </c>
+      <c r="D8" s="4">
+        <v>8144284.0499999998</v>
+      </c>
+      <c r="E8" s="4">
+        <v>36855225</v>
+      </c>
+      <c r="F8" s="4">
+        <v>99717625</v>
+      </c>
+      <c r="G8" s="4">
+        <v>69701076.790000007</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2022</v>
+      </c>
+      <c r="B9" s="4">
+        <v>990627157.25999999</v>
+      </c>
+      <c r="C9" s="4">
+        <v>610725723.53999996</v>
+      </c>
+      <c r="D9" s="4">
+        <v>8144284.0199999996</v>
+      </c>
+      <c r="E9" s="4">
+        <v>36856975</v>
+      </c>
+      <c r="F9" s="4">
+        <v>99619937.5</v>
+      </c>
+      <c r="G9" s="4">
+        <v>64012338.82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2023</v>
+      </c>
+      <c r="B10" s="4">
+        <v>968222239.25999999</v>
+      </c>
+      <c r="C10" s="4">
+        <v>599653430.29999995</v>
+      </c>
+      <c r="D10" s="4">
+        <v>8144284.0199999996</v>
+      </c>
+      <c r="E10" s="4">
+        <v>36855725</v>
+      </c>
+      <c r="F10" s="4">
+        <v>99508625</v>
+      </c>
+      <c r="G10" s="4">
+        <v>58624055.469999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2024</v>
+      </c>
+      <c r="B11" s="4">
+        <v>942659644.75999999</v>
+      </c>
+      <c r="C11" s="4">
+        <v>596936926.13</v>
+      </c>
+      <c r="D11" s="4">
+        <v>8144284.04</v>
+      </c>
+      <c r="E11" s="4">
+        <v>36854975</v>
+      </c>
+      <c r="F11" s="4">
+        <v>99397125</v>
+      </c>
+      <c r="G11" s="4">
+        <v>44382436.369999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2025</v>
+      </c>
+      <c r="B12" s="4">
+        <v>894823096.25999999</v>
+      </c>
+      <c r="C12" s="4">
+        <v>594901375.90999997</v>
+      </c>
+      <c r="D12" s="4">
+        <v>8144284.04</v>
+      </c>
+      <c r="E12" s="4">
+        <v>36857975</v>
+      </c>
+      <c r="F12" s="4">
+        <v>99307250</v>
+      </c>
+      <c r="G12" s="4">
+        <v>40442993.579999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2026</v>
+      </c>
+      <c r="B13" s="4">
+        <v>860374538.25999999</v>
+      </c>
+      <c r="C13" s="4">
+        <v>591732486.34000003</v>
+      </c>
+      <c r="D13" s="4">
+        <v>8144284.0499999998</v>
+      </c>
+      <c r="E13" s="4">
+        <v>36857725</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4">
+        <v>39525499.840000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2027</v>
+      </c>
+      <c r="B14" s="4">
+        <v>819265731.25999999</v>
+      </c>
+      <c r="C14" s="4">
+        <v>576408627.14999998</v>
+      </c>
+      <c r="D14" s="4">
+        <v>8144284.0499999998</v>
+      </c>
+      <c r="E14" s="4">
+        <v>36855462.5</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4">
+        <v>34654973.189999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2028</v>
+      </c>
+      <c r="B15" s="4">
+        <v>778158918.75999999</v>
+      </c>
+      <c r="C15" s="4">
+        <v>553935148.29999995</v>
+      </c>
+      <c r="D15" s="4">
+        <v>8144284.0300000003</v>
+      </c>
+      <c r="E15" s="4">
+        <v>36857000</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4">
+        <v>32263916.940000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2029</v>
+      </c>
+      <c r="B16" s="4">
+        <v>754425668.75999999</v>
+      </c>
+      <c r="C16" s="4">
+        <v>542554595.27999997</v>
+      </c>
+      <c r="D16" s="4">
+        <v>8144284.04</v>
+      </c>
+      <c r="E16" s="4">
+        <v>36856250</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4">
+        <v>27921353.800000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2030</v>
+      </c>
+      <c r="B17" s="4">
+        <v>713192962.50999999</v>
+      </c>
+      <c r="C17" s="4">
+        <v>525715275.04000002</v>
+      </c>
+      <c r="D17" s="4">
+        <v>8144284.04</v>
+      </c>
+      <c r="E17" s="4">
+        <v>36859000</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4">
+        <v>19690921.289999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2031</v>
+      </c>
+      <c r="B18" s="4">
+        <v>666572531.25999999</v>
+      </c>
+      <c r="C18" s="4">
+        <v>422258249.72000003</v>
+      </c>
+      <c r="D18" s="4">
+        <v>8144284.04</v>
+      </c>
+      <c r="E18" s="4">
+        <v>36857750</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4">
+        <v>16981606.280000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2032</v>
+      </c>
+      <c r="B19" s="4">
+        <v>631323706.25999999</v>
+      </c>
+      <c r="C19" s="4">
+        <v>390391422.69999999</v>
+      </c>
+      <c r="D19" s="4">
+        <v>8144284.0300000003</v>
+      </c>
+      <c r="E19" s="4">
+        <v>36855250</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4">
+        <v>14415931.27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2033</v>
+      </c>
+      <c r="B20" s="4">
+        <v>582025268.75999999</v>
+      </c>
+      <c r="C20" s="4">
+        <v>352926733.10000002</v>
+      </c>
+      <c r="D20" s="4">
+        <v>8144284.04</v>
+      </c>
+      <c r="E20" s="4">
+        <v>36859000</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4">
+        <v>8469031.2599999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2034</v>
+      </c>
+      <c r="B21" s="4">
+        <v>492265581.25999999</v>
+      </c>
+      <c r="C21" s="4">
+        <v>303572205.07999998</v>
+      </c>
+      <c r="D21" s="4">
+        <v>8144284.0300000003</v>
+      </c>
+      <c r="E21" s="4">
+        <v>36856000</v>
+      </c>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4">
+        <v>8156675</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2035</v>
+      </c>
+      <c r="B22" s="4">
+        <v>405458893.75999999</v>
+      </c>
+      <c r="C22" s="4">
+        <v>272065655.56</v>
+      </c>
+      <c r="D22" s="4">
+        <v>8144284.04</v>
+      </c>
+      <c r="E22" s="4">
+        <v>36858750</v>
+      </c>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4">
+        <v>7052400</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2036</v>
+      </c>
+      <c r="B23" s="4">
+        <v>329559253.13</v>
+      </c>
+      <c r="C23" s="4">
+        <v>242545105.71000001</v>
+      </c>
+      <c r="D23" s="4">
+        <v>8144284.0499999998</v>
+      </c>
+      <c r="E23" s="4">
+        <v>36859000</v>
+      </c>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4">
+        <v>7056718.75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2037</v>
+      </c>
+      <c r="B24" s="4">
+        <v>265649025</v>
+      </c>
+      <c r="C24" s="4">
+        <v>241020047.37</v>
+      </c>
+      <c r="D24" s="4">
+        <v>8144284.0199999996</v>
+      </c>
+      <c r="E24" s="4">
+        <v>36858750</v>
+      </c>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4">
+        <v>5117000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2038</v>
+      </c>
+      <c r="B25" s="4">
+        <v>212597700</v>
+      </c>
+      <c r="C25" s="4">
+        <v>239422372.22</v>
+      </c>
+      <c r="D25" s="4">
+        <v>8144284.0099999998</v>
+      </c>
+      <c r="E25" s="4">
+        <v>36859750</v>
+      </c>
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2039</v>
+      </c>
+      <c r="B26" s="4">
+        <v>177151375</v>
+      </c>
+      <c r="C26" s="4">
+        <v>237803513.28</v>
+      </c>
+      <c r="D26" s="4">
+        <v>8144284.0199999996</v>
+      </c>
+      <c r="E26" s="4">
+        <v>36858500</v>
+      </c>
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2040</v>
+      </c>
+      <c r="B27" s="4">
+        <v>105943656.25</v>
+      </c>
+      <c r="C27" s="4">
+        <v>197878137.47999999</v>
+      </c>
+      <c r="D27" s="4">
+        <v>8144284</v>
+      </c>
+      <c r="E27" s="4">
+        <v>36856500</v>
+      </c>
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2041</v>
+      </c>
+      <c r="B28" s="4">
+        <v>61216781.25</v>
+      </c>
+      <c r="C28" s="4">
+        <v>152034611.75999999</v>
+      </c>
+      <c r="D28" s="4">
+        <v>8144284.04</v>
+      </c>
+      <c r="E28" s="4">
+        <v>36855000</v>
+      </c>
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2042</v>
+      </c>
+      <c r="B29" s="4">
+        <v>0</v>
+      </c>
+      <c r="C29" s="4">
+        <v>58202081.259999998</v>
+      </c>
+      <c r="D29" s="4">
+        <v>14615833.210000001</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2043</v>
+      </c>
+      <c r="B30" s="4">
+        <v>0</v>
+      </c>
+      <c r="C30" s="4">
+        <v>31088028.129999999</v>
+      </c>
+      <c r="D30" s="4">
+        <v>14615833.210000001</v>
+      </c>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>2044</v>
+      </c>
+      <c r="B31" s="4">
+        <v>0</v>
+      </c>
+      <c r="C31" s="4">
+        <v>0</v>
+      </c>
+      <c r="D31" s="4">
+        <v>14615833.23</v>
+      </c>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>2045</v>
+      </c>
+      <c r="B32" s="4">
+        <v>0</v>
+      </c>
+      <c r="C32" s="4">
+        <v>0</v>
+      </c>
+      <c r="D32" s="4">
+        <v>14615833.23</v>
+      </c>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>2046</v>
+      </c>
+      <c r="B33" s="4">
+        <v>0</v>
+      </c>
+      <c r="C33" s="4">
+        <v>0</v>
+      </c>
+      <c r="D33" s="4">
+        <v>14615833.24</v>
+      </c>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>2047</v>
+      </c>
+      <c r="B34" s="4">
+        <v>0</v>
+      </c>
+      <c r="C34" s="4">
+        <v>0</v>
+      </c>
+      <c r="D34" s="4">
+        <v>14615833.24</v>
+      </c>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>2048</v>
+      </c>
+      <c r="B35" s="4">
+        <v>0</v>
+      </c>
+      <c r="C35" s="4">
+        <v>0</v>
+      </c>
+      <c r="D35" s="4">
+        <v>14615833.25</v>
+      </c>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>2049</v>
+      </c>
+      <c r="B36" s="4">
+        <v>0</v>
+      </c>
+      <c r="C36" s="4">
+        <v>0</v>
+      </c>
+      <c r="D36" s="4">
+        <v>14615833.23</v>
+      </c>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>2050</v>
+      </c>
+      <c r="B37" s="4">
+        <v>0</v>
+      </c>
+      <c r="C37" s="4">
+        <v>0</v>
+      </c>
+      <c r="D37" s="4">
+        <v>14615833.26</v>
+      </c>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>2051</v>
+      </c>
+      <c r="B38" s="4">
+        <v>0</v>
+      </c>
+      <c r="C38" s="4">
+        <v>0</v>
+      </c>
+      <c r="D38" s="4">
+        <v>14615833.18</v>
+      </c>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F21"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
@@ -10925,7 +12461,7 @@
     <col min="6" max="6" width="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -10945,7 +12481,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2000</v>
       </c>
@@ -10965,7 +12501,7 @@
         <v>5.550547419769606E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2001</v>
       </c>
@@ -10985,7 +12521,7 @@
         <v>5.7614142379316606E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2002</v>
       </c>
@@ -11005,7 +12541,7 @@
         <v>5.9278702079676761E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2003</v>
       </c>
@@ -11025,7 +12561,7 @@
         <v>5.8497213647350915E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2004</v>
       </c>
@@ -11045,7 +12581,7 @@
         <v>5.4886393370990452E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2005</v>
       </c>
@@ -11065,7 +12601,7 @@
         <v>5.598167927515342E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2006</v>
       </c>
@@ -11085,7 +12621,7 @@
         <v>5.2448473262668889E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2007</v>
       </c>
@@ -11105,7 +12641,7 @@
         <v>5.0706103603438635E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2008</v>
       </c>
@@ -11125,7 +12661,7 @@
         <v>5.3126926496081146E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2009</v>
       </c>
@@ -11145,7 +12681,7 @@
         <v>6.3140477320984559E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2010</v>
       </c>
@@ -11165,7 +12701,7 @@
         <v>6.9768097308275059E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2011</v>
       </c>
@@ -11185,7 +12721,7 @@
         <v>6.6807818182973294E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2012</v>
       </c>
@@ -11205,7 +12741,7 @@
         <v>6.774155642213027E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2013</v>
       </c>
@@ -11225,7 +12761,7 @@
         <v>6.579507684560898E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2014</v>
       </c>
@@ -11245,7 +12781,7 @@
         <v>6.5165750932071401E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2015</v>
       </c>
@@ -11265,7 +12801,7 @@
         <v>6.5557127696195344E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2016</v>
       </c>
@@ -11285,7 +12821,7 @@
         <v>6.3261302689644069E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2017</v>
       </c>
@@ -11305,7 +12841,7 @@
         <v>6.3390439173060975E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
@@ -11317,15 +12853,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM58"/>
   <sheetViews>
     <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="A86" sqref="A86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="64.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="10" width="15.28515625" style="7" hidden="1" customWidth="1"/>
@@ -11521,7 +13057,7 @@
     <col min="16139" max="16166" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B1" s="8">
         <v>1991</v>
       </c>
@@ -11670,12 +13206,12 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="2" spans="1:39">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:39">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>17</v>
       </c>
@@ -11792,7 +13328,7 @@
       </c>
       <c r="AM3" s="12"/>
     </row>
-    <row r="4" spans="1:39">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>18</v>
       </c>
@@ -11909,7 +13445,7 @@
       </c>
       <c r="AM4" s="12"/>
     </row>
-    <row r="5" spans="1:39" ht="15.75" thickBot="1">
+    <row r="5" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>19</v>
       </c>
@@ -12026,7 +13562,7 @@
       </c>
       <c r="AM5" s="12"/>
     </row>
-    <row r="6" spans="1:39" ht="15.75" thickTop="1">
+    <row r="6" spans="1:39" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="K6" s="11"/>
       <c r="L6" s="11"/>
       <c r="M6" s="11"/>
@@ -12057,7 +13593,7 @@
       <c r="AL6" s="11"/>
       <c r="AM6" s="12"/>
     </row>
-    <row r="7" spans="1:39">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>20</v>
       </c>
@@ -12091,7 +13627,7 @@
       <c r="AL7" s="11"/>
       <c r="AM7" s="12"/>
     </row>
-    <row r="8" spans="1:39">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>21</v>
       </c>
@@ -12147,7 +13683,7 @@
       </c>
       <c r="AM8" s="12"/>
     </row>
-    <row r="9" spans="1:39">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>22</v>
       </c>
@@ -12203,7 +13739,7 @@
       </c>
       <c r="AM9" s="12"/>
     </row>
-    <row r="10" spans="1:39" ht="15.75" thickBot="1">
+    <row r="10" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
         <v>8</v>
       </c>
@@ -12320,7 +13856,7 @@
       </c>
       <c r="AM10" s="12"/>
     </row>
-    <row r="11" spans="1:39" ht="15.75" thickTop="1">
+    <row r="11" spans="1:39" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="K11" s="11"/>
       <c r="L11" s="11"/>
       <c r="M11" s="11"/>
@@ -12351,7 +13887,7 @@
       <c r="AL11" s="11"/>
       <c r="AM11" s="12"/>
     </row>
-    <row r="12" spans="1:39">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>23</v>
       </c>
@@ -12385,7 +13921,7 @@
       <c r="AL12" s="11"/>
       <c r="AM12" s="12"/>
     </row>
-    <row r="13" spans="1:39" ht="15.75" thickBot="1">
+    <row r="13" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="18" t="s">
         <v>24</v>
       </c>
@@ -12484,7 +14020,7 @@
       </c>
       <c r="AM13" s="12"/>
     </row>
-    <row r="14" spans="1:39" ht="15.75" thickTop="1">
+    <row r="14" spans="1:39" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="K14" s="11"/>
       <c r="L14" s="11"/>
       <c r="M14" s="11"/>
@@ -12515,7 +14051,7 @@
       <c r="AL14" s="11"/>
       <c r="AM14" s="12"/>
     </row>
-    <row r="15" spans="1:39" ht="15.75" thickBot="1">
+    <row r="15" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
         <v>25</v>
       </c>
@@ -12614,7 +14150,7 @@
       </c>
       <c r="AM15" s="12"/>
     </row>
-    <row r="16" spans="1:39" ht="15.75" thickTop="1">
+    <row r="16" spans="1:39" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="K16" s="11"/>
       <c r="L16" s="11"/>
       <c r="M16" s="11"/>
@@ -12645,7 +14181,7 @@
       <c r="AL16" s="11"/>
       <c r="AM16" s="12"/>
     </row>
-    <row r="17" spans="1:39">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
       <c r="K17" s="11"/>
       <c r="L17" s="11"/>
       <c r="M17" s="11"/>
@@ -12676,7 +14212,7 @@
       <c r="AL17" s="11"/>
       <c r="AM17" s="12"/>
     </row>
-    <row r="18" spans="1:39">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
         <v>26</v>
       </c>
@@ -12710,7 +14246,7 @@
       <c r="AL18" s="11"/>
       <c r="AM18" s="12"/>
     </row>
-    <row r="19" spans="1:39">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
         <v>27</v>
       </c>
@@ -12766,7 +14302,7 @@
       </c>
       <c r="AM19" s="12"/>
     </row>
-    <row r="20" spans="1:39">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
         <v>28</v>
       </c>
@@ -12836,7 +14372,7 @@
       </c>
       <c r="AM20" s="12"/>
     </row>
-    <row r="21" spans="1:39" ht="15.75" thickBot="1">
+    <row r="21" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="21" t="s">
         <v>8</v>
       </c>
@@ -12912,7 +14448,7 @@
       </c>
       <c r="AM21" s="12"/>
     </row>
-    <row r="22" spans="1:39" ht="15.75" thickTop="1">
+    <row r="22" spans="1:39" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="K22" s="11"/>
       <c r="L22" s="11"/>
       <c r="M22" s="11"/>
@@ -12943,7 +14479,7 @@
       <c r="AL22" s="11"/>
       <c r="AM22" s="12"/>
     </row>
-    <row r="23" spans="1:39">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>29</v>
       </c>
@@ -12977,7 +14513,7 @@
       <c r="AL23" s="11"/>
       <c r="AM23" s="12"/>
     </row>
-    <row r="24" spans="1:39">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
         <v>30</v>
       </c>
@@ -13094,7 +14630,7 @@
       </c>
       <c r="AM24" s="12"/>
     </row>
-    <row r="25" spans="1:39">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
         <v>31</v>
       </c>
@@ -13150,7 +14686,7 @@
       </c>
       <c r="AM25" s="12"/>
     </row>
-    <row r="26" spans="1:39">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
         <v>32</v>
       </c>
@@ -13216,7 +14752,7 @@
       </c>
       <c r="AM26" s="12"/>
     </row>
-    <row r="27" spans="1:39" ht="15.75" thickBot="1">
+    <row r="27" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="14" t="s">
         <v>8</v>
       </c>
@@ -13370,7 +14906,7 @@
       </c>
       <c r="AM27" s="12"/>
     </row>
-    <row r="28" spans="1:39" ht="15.75" thickTop="1">
+    <row r="28" spans="1:39" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="K28" s="11"/>
       <c r="L28" s="11"/>
       <c r="M28" s="11"/>
@@ -13401,12 +14937,12 @@
       <c r="AL28" s="11"/>
       <c r="AM28" s="12"/>
     </row>
-    <row r="29" spans="1:39">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:39">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
         <v>34</v>
       </c>
@@ -13559,7 +15095,7 @@
         <v>1.656460503403296</v>
       </c>
     </row>
-    <row r="31" spans="1:39">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
         <v>35</v>
       </c>
@@ -13712,7 +15248,7 @@
         <v>1.7092234655005685</v>
       </c>
     </row>
-    <row r="32" spans="1:39">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
         <v>36</v>
       </c>
@@ -13829,7 +15365,7 @@
         <v>2.1648453573450457</v>
       </c>
     </row>
-    <row r="33" spans="1:38">
+    <row r="33" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A33" s="20" t="s">
         <v>37</v>
       </c>
@@ -13946,7 +15482,7 @@
         <v>1.7162666958687156</v>
       </c>
     </row>
-    <row r="35" spans="1:38">
+    <row r="35" spans="1:38" x14ac:dyDescent="0.25">
       <c r="K35" s="8">
         <v>2014</v>
       </c>
@@ -14003,12 +15539,12 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="36" spans="1:38">
+    <row r="36" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:38">
+    <row r="37" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
         <v>17</v>
       </c>
@@ -14055,7 +15591,7 @@
         <v>1814818300</v>
       </c>
     </row>
-    <row r="38" spans="1:38">
+    <row r="38" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
         <v>18</v>
       </c>
@@ -14102,7 +15638,7 @@
         <v>-115420200</v>
       </c>
     </row>
-    <row r="39" spans="1:38" ht="15.75" thickBot="1">
+    <row r="39" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="13" t="s">
         <v>19</v>
       </c>
@@ -14149,7 +15685,7 @@
         <v>1699398100</v>
       </c>
     </row>
-    <row r="40" spans="1:38" ht="15.75" thickTop="1">
+    <row r="40" spans="1:38" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="K40" s="11"/>
       <c r="L40" s="11"/>
       <c r="M40" s="11"/>
@@ -14165,7 +15701,7 @@
       <c r="W40" s="11"/>
       <c r="X40" s="11"/>
     </row>
-    <row r="41" spans="1:38">
+    <row r="41" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>20</v>
       </c>
@@ -14184,7 +15720,7 @@
       <c r="W41" s="11"/>
       <c r="X41" s="11"/>
     </row>
-    <row r="42" spans="1:38">
+    <row r="42" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A42" s="16" t="s">
         <v>21</v>
       </c>
@@ -14225,7 +15761,7 @@
         <v>50523146.251000002</v>
       </c>
     </row>
-    <row r="43" spans="1:38">
+    <row r="43" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A43" s="16" t="s">
         <v>22</v>
       </c>
@@ -14266,7 +15802,7 @@
         <v>3607500</v>
       </c>
     </row>
-    <row r="44" spans="1:38" ht="15.75" thickBot="1">
+    <row r="44" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="17" t="s">
         <v>8</v>
       </c>
@@ -14313,7 +15849,7 @@
         <v>54130646.251000002</v>
       </c>
     </row>
-    <row r="45" spans="1:38" ht="15.75" thickTop="1">
+    <row r="45" spans="1:38" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="K45" s="11"/>
       <c r="L45" s="11"/>
       <c r="M45" s="11"/>
@@ -14329,7 +15865,7 @@
       <c r="W45" s="11"/>
       <c r="X45" s="11"/>
     </row>
-    <row r="46" spans="1:38">
+    <row r="46" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>23</v>
       </c>
@@ -14348,7 +15884,7 @@
       <c r="W46" s="11"/>
       <c r="X46" s="11"/>
     </row>
-    <row r="47" spans="1:38" ht="15.75" thickBot="1">
+    <row r="47" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="18" t="s">
         <v>24</v>
       </c>
@@ -14395,7 +15931,7 @@
         <v>467432200</v>
       </c>
     </row>
-    <row r="48" spans="1:38" ht="15.75" thickTop="1">
+    <row r="48" spans="1:38" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="K48" s="11"/>
       <c r="L48" s="11"/>
       <c r="M48" s="11"/>
@@ -14411,7 +15947,7 @@
       <c r="W48" s="11"/>
       <c r="X48" s="11"/>
     </row>
-    <row r="49" spans="1:24">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
         <v>29</v>
       </c>
@@ -14430,7 +15966,7 @@
       <c r="W49" s="11"/>
       <c r="X49" s="11"/>
     </row>
-    <row r="50" spans="1:24">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50" s="16" t="s">
         <v>30</v>
       </c>
@@ -14477,7 +16013,7 @@
         <v>562027877.14999998</v>
       </c>
     </row>
-    <row r="51" spans="1:24">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A51" s="25" t="s">
         <v>38</v>
       </c>
@@ -14518,7 +16054,7 @@
         <v>427037952.47165722</v>
       </c>
     </row>
-    <row r="52" spans="1:24">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A52" s="16" t="s">
         <v>32</v>
       </c>
@@ -14565,7 +16101,7 @@
         <v>36855462.5</v>
       </c>
     </row>
-    <row r="53" spans="1:24" ht="15.75" thickBot="1">
+    <row r="53" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="14" t="s">
         <v>8</v>
       </c>
@@ -14626,7 +16162,7 @@
         <v>1025921292.1216571</v>
       </c>
     </row>
-    <row r="54" spans="1:24" ht="15.75" thickTop="1">
+    <row r="54" spans="1:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="K54" s="11"/>
       <c r="L54" s="11"/>
       <c r="M54" s="11"/>
@@ -14642,7 +16178,7 @@
       <c r="W54" s="11"/>
       <c r="X54" s="11"/>
     </row>
-    <row r="55" spans="1:24">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
         <v>33</v>
       </c>
@@ -14658,7 +16194,7 @@
       <c r="W55" s="27"/>
       <c r="X55" s="27"/>
     </row>
-    <row r="56" spans="1:24">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A56" s="16" t="s">
         <v>34</v>
       </c>
@@ -14719,7 +16255,7 @@
         <v>1.656460503403296</v>
       </c>
     </row>
-    <row r="57" spans="1:24">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A57" s="16" t="s">
         <v>35</v>
       </c>
@@ -14780,7 +16316,7 @@
         <v>1.7092234655005685</v>
       </c>
     </row>
-    <row r="58" spans="1:24">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A58" s="16" t="s">
         <v>36</v>
       </c>
@@ -14851,15 +16387,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H245"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A64" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
     <col min="2" max="2" width="44.140625" customWidth="1"/>
@@ -14870,7 +16406,7 @@
     <col min="7" max="10" width="31.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
         <v>525</v>
       </c>
@@ -14896,7 +16432,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>43</v>
       </c>
@@ -14922,7 +16458,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>46</v>
       </c>
@@ -14948,7 +16484,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>48</v>
       </c>
@@ -14974,7 +16510,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>50</v>
       </c>
@@ -15000,7 +16536,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>52</v>
       </c>
@@ -15026,7 +16562,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>54</v>
       </c>
@@ -15052,7 +16588,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>56</v>
       </c>
@@ -15078,7 +16614,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>58</v>
       </c>
@@ -15104,7 +16640,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>60</v>
       </c>
@@ -15130,7 +16666,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>62</v>
       </c>
@@ -15156,7 +16692,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>64</v>
       </c>
@@ -15182,7 +16718,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="30">
+    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>66</v>
       </c>
@@ -15208,7 +16744,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>68</v>
       </c>
@@ -15234,7 +16770,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>70</v>
       </c>
@@ -15260,7 +16796,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>72</v>
       </c>
@@ -15286,7 +16822,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>74</v>
       </c>
@@ -15312,7 +16848,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
         <v>76</v>
       </c>
@@ -15338,7 +16874,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>78</v>
       </c>
@@ -15364,7 +16900,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
         <v>80</v>
       </c>
@@ -15390,7 +16926,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="29" t="s">
         <v>82</v>
       </c>
@@ -15416,7 +16952,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
         <v>84</v>
       </c>
@@ -15442,7 +16978,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>86</v>
       </c>
@@ -15468,7 +17004,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>88</v>
       </c>
@@ -15494,7 +17030,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="29" t="s">
         <v>90</v>
       </c>
@@ -15520,7 +17056,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="29" t="s">
         <v>92</v>
       </c>
@@ -15546,7 +17082,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="29" t="s">
         <v>94</v>
       </c>
@@ -15572,7 +17108,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="29" t="s">
         <v>96</v>
       </c>
@@ -15598,7 +17134,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="29" t="s">
         <v>98</v>
       </c>
@@ -15624,7 +17160,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
         <v>100</v>
       </c>
@@ -15650,7 +17186,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="29" t="s">
         <v>102</v>
       </c>
@@ -15676,7 +17212,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="29" t="s">
         <v>104</v>
       </c>
@@ -15702,7 +17238,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="29" t="s">
         <v>106</v>
       </c>
@@ -15728,7 +17264,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="29" t="s">
         <v>108</v>
       </c>
@@ -15754,7 +17290,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="29" t="s">
         <v>110</v>
       </c>
@@ -15780,7 +17316,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="29" t="s">
         <v>112</v>
       </c>
@@ -15806,7 +17342,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="29" t="s">
         <v>114</v>
       </c>
@@ -15832,7 +17368,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="29" t="s">
         <v>116</v>
       </c>
@@ -15858,7 +17394,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="29" t="s">
         <v>118</v>
       </c>
@@ -15884,7 +17420,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="29" t="s">
         <v>120</v>
       </c>
@@ -15910,7 +17446,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="29" t="s">
         <v>122</v>
       </c>
@@ -15936,7 +17472,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="29" t="s">
         <v>124</v>
       </c>
@@ -15962,7 +17498,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="29" t="s">
         <v>126</v>
       </c>
@@ -15988,7 +17524,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="30">
+    <row r="44" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="29" t="s">
         <v>128</v>
       </c>
@@ -16014,7 +17550,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="29" t="s">
         <v>130</v>
       </c>
@@ -16040,7 +17576,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="29" t="s">
         <v>132</v>
       </c>
@@ -16066,7 +17602,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="29" t="s">
         <v>134</v>
       </c>
@@ -16092,7 +17628,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="30">
+    <row r="48" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="29" t="s">
         <v>136</v>
       </c>
@@ -16118,7 +17654,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="29" t="s">
         <v>138</v>
       </c>
@@ -16144,7 +17680,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="29" t="s">
         <v>140</v>
       </c>
@@ -16170,7 +17706,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="29" t="s">
         <v>142</v>
       </c>
@@ -16196,7 +17732,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="29" t="s">
         <v>144</v>
       </c>
@@ -16222,7 +17758,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="29" t="s">
         <v>146</v>
       </c>
@@ -16248,7 +17784,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="29" t="s">
         <v>148</v>
       </c>
@@ -16274,7 +17810,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="29" t="s">
         <v>150</v>
       </c>
@@ -16300,7 +17836,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="29" t="s">
         <v>152</v>
       </c>
@@ -16326,7 +17862,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="29" t="s">
         <v>154</v>
       </c>
@@ -16352,7 +17888,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="29" t="s">
         <v>156</v>
       </c>
@@ -16378,7 +17914,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="29" t="s">
         <v>158</v>
       </c>
@@ -16404,7 +17940,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="30">
+    <row r="60" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="29" t="s">
         <v>160</v>
       </c>
@@ -16430,7 +17966,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="29" t="s">
         <v>162</v>
       </c>
@@ -16456,7 +17992,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="29" t="s">
         <v>164</v>
       </c>
@@ -16482,7 +18018,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="29" t="s">
         <v>166</v>
       </c>
@@ -16508,7 +18044,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="29" t="s">
         <v>168</v>
       </c>
@@ -16534,7 +18070,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="30">
+    <row r="65" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="29" t="s">
         <v>170</v>
       </c>
@@ -16560,7 +18096,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="29" t="s">
         <v>172</v>
       </c>
@@ -16586,7 +18122,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="29" t="s">
         <v>174</v>
       </c>
@@ -16612,7 +18148,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="29" t="s">
         <v>176</v>
       </c>
@@ -16638,7 +18174,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="30">
+    <row r="69" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="29" t="s">
         <v>178</v>
       </c>
@@ -16664,7 +18200,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="29" t="s">
         <v>180</v>
       </c>
@@ -16690,7 +18226,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="29" t="s">
         <v>182</v>
       </c>
@@ -16716,7 +18252,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="29" t="s">
         <v>184</v>
       </c>
@@ -16742,7 +18278,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="29" t="s">
         <v>186</v>
       </c>
@@ -16768,7 +18304,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="29" t="s">
         <v>188</v>
       </c>
@@ -16794,7 +18330,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="29" t="s">
         <v>190</v>
       </c>
@@ -16820,7 +18356,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="30">
+    <row r="76" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="29" t="s">
         <v>192</v>
       </c>
@@ -16846,7 +18382,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="29" t="s">
         <v>194</v>
       </c>
@@ -16872,7 +18408,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="29" t="s">
         <v>196</v>
       </c>
@@ -16898,7 +18434,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="29" t="s">
         <v>198</v>
       </c>
@@ -16924,7 +18460,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="29" t="s">
         <v>200</v>
       </c>
@@ -16950,7 +18486,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="29" t="s">
         <v>202</v>
       </c>
@@ -16976,7 +18512,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="29" t="s">
         <v>204</v>
       </c>
@@ -17002,7 +18538,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="30">
+    <row r="83" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="29" t="s">
         <v>206</v>
       </c>
@@ -17028,7 +18564,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="29" t="s">
         <v>208</v>
       </c>
@@ -17054,7 +18590,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="29" t="s">
         <v>210</v>
       </c>
@@ -17080,7 +18616,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="29" t="s">
         <v>212</v>
       </c>
@@ -17106,7 +18642,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="29" t="s">
         <v>214</v>
       </c>
@@ -17132,7 +18668,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="29" t="s">
         <v>216</v>
       </c>
@@ -17158,7 +18694,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="29" t="s">
         <v>218</v>
       </c>
@@ -17184,7 +18720,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="30">
+    <row r="90" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="29" t="s">
         <v>220</v>
       </c>
@@ -17210,7 +18746,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="29" t="s">
         <v>222</v>
       </c>
@@ -17236,7 +18772,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="29" t="s">
         <v>224</v>
       </c>
@@ -17262,7 +18798,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="29" t="s">
         <v>226</v>
       </c>
@@ -17288,7 +18824,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="29" t="s">
         <v>228</v>
       </c>
@@ -17314,7 +18850,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="29" t="s">
         <v>230</v>
       </c>
@@ -17340,7 +18876,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="29" t="s">
         <v>232</v>
       </c>
@@ -17366,7 +18902,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="29" t="s">
         <v>234</v>
       </c>
@@ -17392,7 +18928,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="29" t="s">
         <v>236</v>
       </c>
@@ -17418,7 +18954,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="29" t="s">
         <v>238</v>
       </c>
@@ -17444,7 +18980,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="29" t="s">
         <v>240</v>
       </c>
@@ -17470,7 +19006,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="29" t="s">
         <v>242</v>
       </c>
@@ -17496,7 +19032,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="29" t="s">
         <v>244</v>
       </c>
@@ -17522,7 +19058,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="29" t="s">
         <v>246</v>
       </c>
@@ -17548,7 +19084,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="29" t="s">
         <v>248</v>
       </c>
@@ -17574,7 +19110,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="29" t="s">
         <v>250</v>
       </c>
@@ -17600,7 +19136,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="29" t="s">
         <v>252</v>
       </c>
@@ -17626,7 +19162,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="29" t="s">
         <v>254</v>
       </c>
@@ -17652,7 +19188,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="29" t="s">
         <v>256</v>
       </c>
@@ -17678,7 +19214,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="29" t="s">
         <v>258</v>
       </c>
@@ -17704,7 +19240,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="29" t="s">
         <v>260</v>
       </c>
@@ -17730,7 +19266,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="29" t="s">
         <v>262</v>
       </c>
@@ -17756,7 +19292,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="29" t="s">
         <v>264</v>
       </c>
@@ -17782,7 +19318,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="29" t="s">
         <v>266</v>
       </c>
@@ -17808,7 +19344,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="29" t="s">
         <v>268</v>
       </c>
@@ -17834,7 +19370,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="29" t="s">
         <v>270</v>
       </c>
@@ -17860,7 +19396,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="29" t="s">
         <v>272</v>
       </c>
@@ -17886,7 +19422,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="29" t="s">
         <v>274</v>
       </c>
@@ -17912,7 +19448,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="29" t="s">
         <v>276</v>
       </c>
@@ -17938,7 +19474,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="29" t="s">
         <v>278</v>
       </c>
@@ -17964,7 +19500,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="30">
+    <row r="120" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" s="29" t="s">
         <v>280</v>
       </c>
@@ -17990,7 +19526,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="29" t="s">
         <v>282</v>
       </c>
@@ -18016,7 +19552,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="30">
+    <row r="122" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A122" s="29" t="s">
         <v>284</v>
       </c>
@@ -18042,7 +19578,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="29" t="s">
         <v>286</v>
       </c>
@@ -18068,7 +19604,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="30">
+    <row r="124" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="29" t="s">
         <v>288</v>
       </c>
@@ -18094,7 +19630,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="29" t="s">
         <v>290</v>
       </c>
@@ -18120,7 +19656,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="126" spans="1:8">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="29" t="s">
         <v>292</v>
       </c>
@@ -18146,7 +19682,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="29" t="s">
         <v>294</v>
       </c>
@@ -18172,7 +19708,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="29" t="s">
         <v>296</v>
       </c>
@@ -18198,7 +19734,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="29" t="s">
         <v>298</v>
       </c>
@@ -18224,7 +19760,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="130" spans="1:8">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="29" t="s">
         <v>300</v>
       </c>
@@ -18250,7 +19786,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="29" t="s">
         <v>302</v>
       </c>
@@ -18276,7 +19812,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="30">
+    <row r="132" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A132" s="29" t="s">
         <v>304</v>
       </c>
@@ -18302,7 +19838,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="133" spans="1:8">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="29" t="s">
         <v>306</v>
       </c>
@@ -18328,7 +19864,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="134" spans="1:8">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="29" t="s">
         <v>308</v>
       </c>
@@ -18354,7 +19890,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="135" spans="1:8" ht="45">
+    <row r="135" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A135" s="29" t="s">
         <v>310</v>
       </c>
@@ -18380,7 +19916,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="136" spans="1:8">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="29" t="s">
         <v>313</v>
       </c>
@@ -18406,7 +19942,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="137" spans="1:8">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="29" t="s">
         <v>315</v>
       </c>
@@ -18432,7 +19968,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="138" spans="1:8">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="29" t="s">
         <v>317</v>
       </c>
@@ -18458,7 +19994,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="139" spans="1:8">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="29" t="s">
         <v>319</v>
       </c>
@@ -18484,7 +20020,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="30">
+    <row r="140" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A140" s="29" t="s">
         <v>321</v>
       </c>
@@ -18510,7 +20046,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="141" spans="1:8" ht="30">
+    <row r="141" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A141" s="29" t="s">
         <v>323</v>
       </c>
@@ -18536,7 +20072,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="142" spans="1:8" ht="30">
+    <row r="142" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A142" s="29" t="s">
         <v>325</v>
       </c>
@@ -18562,7 +20098,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="143" spans="1:8" ht="30">
+    <row r="143" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A143" s="29" t="s">
         <v>327</v>
       </c>
@@ -18588,7 +20124,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="144" spans="1:8" ht="30">
+    <row r="144" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A144" s="29" t="s">
         <v>329</v>
       </c>
@@ -18614,7 +20150,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="145" spans="1:8" ht="30">
+    <row r="145" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A145" s="29" t="s">
         <v>331</v>
       </c>
@@ -18640,7 +20176,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="146" spans="1:8">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="29" t="s">
         <v>333</v>
       </c>
@@ -18666,7 +20202,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="147" spans="1:8">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="29" t="s">
         <v>335</v>
       </c>
@@ -18692,7 +20228,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="148" spans="1:8">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="29" t="s">
         <v>337</v>
       </c>
@@ -18718,7 +20254,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="149" spans="1:8">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="29" t="s">
         <v>339</v>
       </c>
@@ -18744,7 +20280,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="150" spans="1:8">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="29" t="s">
         <v>341</v>
       </c>
@@ -18770,7 +20306,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="151" spans="1:8" ht="45">
+    <row r="151" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A151" s="29" t="s">
         <v>343</v>
       </c>
@@ -18796,7 +20332,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="152" spans="1:8">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="29" t="s">
         <v>345</v>
       </c>
@@ -18822,7 +20358,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="153" spans="1:8">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="29" t="s">
         <v>347</v>
       </c>
@@ -18848,7 +20384,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="154" spans="1:8">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="29" t="s">
         <v>349</v>
       </c>
@@ -18874,7 +20410,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="155" spans="1:8">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="29" t="s">
         <v>351</v>
       </c>
@@ -18900,7 +20436,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="156" spans="1:8">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="29" t="s">
         <v>353</v>
       </c>
@@ -18926,7 +20462,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="157" spans="1:8">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="29" t="s">
         <v>355</v>
       </c>
@@ -18952,7 +20488,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="158" spans="1:8">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="29" t="s">
         <v>357</v>
       </c>
@@ -18978,7 +20514,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="159" spans="1:8">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="29" t="s">
         <v>359</v>
       </c>
@@ -19004,7 +20540,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="160" spans="1:8">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="29" t="s">
         <v>361</v>
       </c>
@@ -19030,7 +20566,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="161" spans="1:8">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="29" t="s">
         <v>363</v>
       </c>
@@ -19056,7 +20592,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="162" spans="1:8">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="29" t="s">
         <v>365</v>
       </c>
@@ -19082,7 +20618,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="163" spans="1:8">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="29" t="s">
         <v>367</v>
       </c>
@@ -19108,7 +20644,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="164" spans="1:8">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="29" t="s">
         <v>369</v>
       </c>
@@ -19134,7 +20670,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="165" spans="1:8">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="29" t="s">
         <v>371</v>
       </c>
@@ -19160,7 +20696,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="166" spans="1:8">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="29" t="s">
         <v>373</v>
       </c>
@@ -19186,7 +20722,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="167" spans="1:8">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="29" t="s">
         <v>375</v>
       </c>
@@ -19212,7 +20748,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="168" spans="1:8">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="29" t="s">
         <v>377</v>
       </c>
@@ -19238,7 +20774,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="169" spans="1:8">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="29" t="s">
         <v>379</v>
       </c>
@@ -19264,7 +20800,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="170" spans="1:8">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="29" t="s">
         <v>381</v>
       </c>
@@ -19290,7 +20826,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="171" spans="1:8">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="29" t="s">
         <v>381</v>
       </c>
@@ -19316,7 +20852,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="172" spans="1:8">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="29" t="s">
         <v>383</v>
       </c>
@@ -19342,7 +20878,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="173" spans="1:8">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="29" t="s">
         <v>385</v>
       </c>
@@ -19368,7 +20904,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="174" spans="1:8">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="29" t="s">
         <v>387</v>
       </c>
@@ -19394,7 +20930,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="175" spans="1:8">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="29" t="s">
         <v>387</v>
       </c>
@@ -19420,7 +20956,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="176" spans="1:8">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="29" t="s">
         <v>389</v>
       </c>
@@ -19446,7 +20982,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="177" spans="1:8">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="29" t="s">
         <v>391</v>
       </c>
@@ -19472,7 +21008,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="178" spans="1:8">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="29" t="s">
         <v>393</v>
       </c>
@@ -19498,7 +21034,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="179" spans="1:8">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="29" t="s">
         <v>395</v>
       </c>
@@ -19524,7 +21060,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="180" spans="1:8">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="29" t="s">
         <v>397</v>
       </c>
@@ -19550,7 +21086,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="181" spans="1:8">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="29" t="s">
         <v>399</v>
       </c>
@@ -19576,7 +21112,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="182" spans="1:8">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="29" t="s">
         <v>401</v>
       </c>
@@ -19602,7 +21138,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="183" spans="1:8">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="29" t="s">
         <v>403</v>
       </c>
@@ -19628,7 +21164,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="184" spans="1:8">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="29" t="s">
         <v>405</v>
       </c>
@@ -19654,7 +21190,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="185" spans="1:8">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" s="29" t="s">
         <v>407</v>
       </c>
@@ -19680,7 +21216,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="186" spans="1:8">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="29" t="s">
         <v>409</v>
       </c>
@@ -19706,7 +21242,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="187" spans="1:8">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="29" t="s">
         <v>411</v>
       </c>
@@ -19732,7 +21268,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="188" spans="1:8">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" s="29" t="s">
         <v>413</v>
       </c>
@@ -19758,7 +21294,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="189" spans="1:8">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" s="29" t="s">
         <v>415</v>
       </c>
@@ -19784,7 +21320,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="190" spans="1:8">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" s="29" t="s">
         <v>417</v>
       </c>
@@ -19810,7 +21346,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="191" spans="1:8">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" s="29" t="s">
         <v>419</v>
       </c>
@@ -19836,7 +21372,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="192" spans="1:8">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" s="29" t="s">
         <v>421</v>
       </c>
@@ -19862,7 +21398,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="193" spans="1:8">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="29" t="s">
         <v>423</v>
       </c>
@@ -19888,7 +21424,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="194" spans="1:8">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" s="29" t="s">
         <v>425</v>
       </c>
@@ -19914,7 +21450,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="195" spans="1:8">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" s="29" t="s">
         <v>427</v>
       </c>
@@ -19940,7 +21476,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="196" spans="1:8">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" s="29" t="s">
         <v>429</v>
       </c>
@@ -19966,7 +21502,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="197" spans="1:8">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="29" t="s">
         <v>431</v>
       </c>
@@ -19992,7 +21528,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="198" spans="1:8">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" s="29" t="s">
         <v>433</v>
       </c>
@@ -20018,7 +21554,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="199" spans="1:8">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" s="29" t="s">
         <v>435</v>
       </c>
@@ -20044,7 +21580,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="200" spans="1:8">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" s="29" t="s">
         <v>437</v>
       </c>
@@ -20070,7 +21606,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="201" spans="1:8">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" s="29" t="s">
         <v>439</v>
       </c>
@@ -20096,7 +21632,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="202" spans="1:8">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" s="29" t="s">
         <v>441</v>
       </c>
@@ -20122,7 +21658,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="203" spans="1:8">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" s="29" t="s">
         <v>443</v>
       </c>
@@ -20148,7 +21684,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="204" spans="1:8">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" s="29" t="s">
         <v>445</v>
       </c>
@@ -20174,7 +21710,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="205" spans="1:8">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" s="29" t="s">
         <v>447</v>
       </c>
@@ -20200,7 +21736,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="206" spans="1:8">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" s="29" t="s">
         <v>449</v>
       </c>
@@ -20226,7 +21762,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="207" spans="1:8">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" s="29" t="s">
         <v>451</v>
       </c>
@@ -20252,7 +21788,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="208" spans="1:8">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" s="29" t="s">
         <v>453</v>
       </c>
@@ -20278,7 +21814,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="209" spans="1:8">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" s="29" t="s">
         <v>455</v>
       </c>
@@ -20304,7 +21840,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="210" spans="1:8">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" s="29" t="s">
         <v>457</v>
       </c>
@@ -20330,7 +21866,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="211" spans="1:8">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" s="29" t="s">
         <v>459</v>
       </c>
@@ -20356,7 +21892,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="212" spans="1:8">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="29" t="s">
         <v>461</v>
       </c>
@@ -20382,7 +21918,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="213" spans="1:8">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" s="29" t="s">
         <v>463</v>
       </c>
@@ -20408,7 +21944,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="214" spans="1:8">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" s="29" t="s">
         <v>465</v>
       </c>
@@ -20434,7 +21970,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="215" spans="1:8">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" s="29" t="s">
         <v>467</v>
       </c>
@@ -20460,7 +21996,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="216" spans="1:8">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" s="29" t="s">
         <v>469</v>
       </c>
@@ -20486,7 +22022,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="217" spans="1:8">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" s="29" t="s">
         <v>471</v>
       </c>
@@ -20512,7 +22048,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="218" spans="1:8">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="29" t="s">
         <v>473</v>
       </c>
@@ -20538,7 +22074,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="219" spans="1:8">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" s="29" t="s">
         <v>475</v>
       </c>
@@ -20564,7 +22100,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="220" spans="1:8">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" s="29" t="s">
         <v>477</v>
       </c>
@@ -20590,7 +22126,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="221" spans="1:8">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" s="29" t="s">
         <v>479</v>
       </c>
@@ -20616,7 +22152,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="222" spans="1:8">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="29" t="s">
         <v>479</v>
       </c>
@@ -20642,7 +22178,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="223" spans="1:8">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" s="29" t="s">
         <v>481</v>
       </c>
@@ -20668,7 +22204,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="224" spans="1:8">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="29" t="s">
         <v>483</v>
       </c>
@@ -20694,7 +22230,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="225" spans="1:8">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" s="29" t="s">
         <v>483</v>
       </c>
@@ -20720,7 +22256,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="226" spans="1:8">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" s="29" t="s">
         <v>485</v>
       </c>
@@ -20746,7 +22282,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="227" spans="1:8">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" s="29" t="s">
         <v>487</v>
       </c>
@@ -20772,7 +22308,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="228" spans="1:8">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" s="29" t="s">
         <v>489</v>
       </c>
@@ -20798,7 +22334,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="229" spans="1:8">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" s="29" t="s">
         <v>491</v>
       </c>
@@ -20824,7 +22360,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="230" spans="1:8">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" s="29" t="s">
         <v>493</v>
       </c>
@@ -20850,7 +22386,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="231" spans="1:8">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" s="29" t="s">
         <v>495</v>
       </c>
@@ -20876,7 +22412,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="232" spans="1:8" ht="30">
+    <row r="232" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A232" s="29" t="s">
         <v>497</v>
       </c>
@@ -20902,7 +22438,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="233" spans="1:8">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" s="29" t="s">
         <v>499</v>
       </c>
@@ -20928,7 +22464,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="234" spans="1:8">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" s="29" t="s">
         <v>501</v>
       </c>
@@ -20954,7 +22490,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="235" spans="1:8">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" s="29" t="s">
         <v>503</v>
       </c>
@@ -20980,7 +22516,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="236" spans="1:8">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" s="29" t="s">
         <v>505</v>
       </c>
@@ -21006,7 +22542,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="237" spans="1:8">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" s="29" t="s">
         <v>507</v>
       </c>
@@ -21032,7 +22568,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="238" spans="1:8">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" s="29" t="s">
         <v>509</v>
       </c>
@@ -21058,7 +22594,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="239" spans="1:8" ht="30">
+    <row r="239" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A239" s="29" t="s">
         <v>511</v>
       </c>
@@ -21084,7 +22620,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="240" spans="1:8">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" s="29" t="s">
         <v>513</v>
       </c>
@@ -21110,7 +22646,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="241" spans="1:8">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" s="29" t="s">
         <v>515</v>
       </c>
@@ -21136,7 +22672,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="242" spans="1:8">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" s="29" t="s">
         <v>517</v>
       </c>
@@ -21162,7 +22698,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="243" spans="1:8">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" s="29" t="s">
         <v>519</v>
       </c>
@@ -21188,7 +22724,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="244" spans="1:8">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" s="29" t="s">
         <v>521</v>
       </c>
@@ -21212,7 +22748,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="245" spans="1:8">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" s="29" t="s">
         <v>523</v>
       </c>
@@ -21241,15 +22777,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42.140625" customWidth="1"/>
@@ -21264,7 +22800,7 @@
     <col min="13" max="13" width="23.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
         <v>40</v>
       </c>
@@ -21305,7 +22841,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="36">
         <v>33756</v>
       </c>
@@ -21347,7 +22883,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="36">
         <v>33756</v>
       </c>
@@ -21389,7 +22925,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="30">
+    <row r="4" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="36">
         <v>33756</v>
       </c>
@@ -21431,7 +22967,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="36">
         <v>33756</v>
       </c>
@@ -21473,7 +23009,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="36">
         <v>34090</v>
       </c>
@@ -21515,7 +23051,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="30">
+    <row r="7" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="36">
         <v>34090</v>
       </c>
@@ -21557,7 +23093,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="36">
         <v>34090</v>
       </c>
@@ -21599,7 +23135,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="30">
+    <row r="9" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="36">
         <v>34090</v>
       </c>
@@ -21641,7 +23177,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="36">
         <v>35361</v>
       </c>
@@ -21683,7 +23219,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="30">
+    <row r="11" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="36">
         <v>35439</v>
       </c>
@@ -21725,7 +23261,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="30">
+    <row r="12" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="36">
         <v>35886</v>
       </c>
@@ -21767,7 +23303,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="36">
         <v>35886</v>
       </c>
@@ -21809,7 +23345,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="30">
+    <row r="14" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="36">
         <v>36300</v>
       </c>
@@ -21851,7 +23387,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="30">
+    <row r="15" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="36">
         <v>36321</v>
       </c>
@@ -21893,7 +23429,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="30">
+    <row r="16" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="36">
         <v>36648</v>
       </c>
@@ -21935,7 +23471,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="36">
         <v>37531</v>
       </c>
@@ -21977,7 +23513,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="36">
         <v>37657</v>
       </c>
@@ -22019,7 +23555,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="36">
         <v>37839</v>
       </c>
@@ -22061,7 +23597,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="36">
         <v>38036</v>
       </c>
@@ -22103,7 +23639,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="36">
         <v>38195</v>
       </c>
@@ -22145,7 +23681,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="36">
         <v>38426</v>
       </c>
@@ -22187,7 +23723,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="36">
         <v>38755</v>
       </c>
@@ -22229,7 +23765,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="36">
         <v>38930</v>
       </c>
@@ -22271,7 +23807,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="36">
         <v>38930</v>
       </c>
@@ -22313,7 +23849,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="36">
         <v>39035</v>
       </c>
@@ -22355,7 +23891,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="30">
+    <row r="27" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="36">
         <v>39035</v>
       </c>
@@ -22397,7 +23933,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="36">
         <v>39035</v>
       </c>
@@ -22439,7 +23975,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="36">
         <v>39119</v>
       </c>
@@ -22481,7 +24017,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="30">
+    <row r="30" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="36">
         <v>39119</v>
       </c>
@@ -22523,7 +24059,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="36">
         <v>39119</v>
       </c>
@@ -22565,7 +24101,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="36">
         <v>39119</v>
       </c>
@@ -22607,7 +24143,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="36">
         <v>39232</v>
       </c>
@@ -22649,7 +24185,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="36">
         <v>39232</v>
       </c>
@@ -22691,7 +24227,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="30">
+    <row r="35" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="36">
         <v>39232</v>
       </c>
@@ -22733,7 +24269,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="36">
         <v>39232</v>
       </c>
@@ -22775,7 +24311,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="36">
         <v>39351</v>
       </c>
@@ -22817,7 +24353,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="36">
         <v>39351</v>
       </c>
@@ -22859,7 +24395,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="36">
         <v>39469</v>
       </c>
@@ -22901,7 +24437,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="36">
         <v>39469</v>
       </c>
@@ -22943,7 +24479,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="36">
         <v>39652</v>
       </c>
@@ -22985,7 +24521,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="30">
+    <row r="42" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="36">
         <v>39652</v>
       </c>
@@ -23027,7 +24563,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="36">
         <v>39652</v>
       </c>
@@ -23069,7 +24605,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="36">
         <v>39652</v>
       </c>
@@ -23111,7 +24647,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="36">
         <v>39835</v>
       </c>
@@ -23153,7 +24689,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="36">
         <v>39835</v>
       </c>
@@ -23195,7 +24731,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="30">
+    <row r="47" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="36">
         <v>39835</v>
       </c>
@@ -23237,7 +24773,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="36">
         <v>39835</v>
       </c>
@@ -23279,7 +24815,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="36">
         <v>39924</v>
       </c>
@@ -23321,7 +24857,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="36">
         <v>39924</v>
       </c>
@@ -23363,7 +24899,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="36">
         <v>40002</v>
       </c>
@@ -23405,7 +24941,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="30">
+    <row r="52" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="36">
         <v>40002</v>
       </c>
@@ -23447,7 +24983,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="36">
         <v>40002</v>
       </c>
@@ -23489,7 +25025,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="36">
         <v>40022</v>
       </c>
@@ -23531,7 +25067,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="36">
         <v>40022</v>
       </c>
@@ -23573,7 +25109,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="30">
+    <row r="56" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="36">
         <v>40022</v>
       </c>
@@ -23615,7 +25151,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="36">
         <v>40022</v>
       </c>
@@ -23657,7 +25193,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="36">
         <v>40022</v>
       </c>
@@ -23699,7 +25235,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="30">
+    <row r="59" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="36">
         <v>40108</v>
       </c>
@@ -23741,7 +25277,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="36">
         <v>40114</v>
       </c>
@@ -23783,7 +25319,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="36">
         <v>40114</v>
       </c>
@@ -23825,7 +25361,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="30">
+    <row r="62" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="36">
         <v>40114</v>
       </c>
@@ -23867,7 +25403,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="36">
         <v>40114</v>
       </c>
@@ -23909,7 +25445,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="36">
         <v>40205</v>
       </c>
@@ -23951,7 +25487,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="65" spans="1:13">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="36">
         <v>40205</v>
       </c>
@@ -23993,7 +25529,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="30">
+    <row r="66" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="36">
         <v>40330</v>
       </c>
@@ -24035,7 +25571,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="67" spans="1:13">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="36">
         <v>40400</v>
       </c>
@@ -24077,7 +25613,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="68" spans="1:13">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="36">
         <v>40400</v>
       </c>
@@ -24119,7 +25655,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="69" spans="1:13">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="36">
         <v>40400</v>
       </c>
@@ -24161,7 +25697,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="70" spans="1:13">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="36">
         <v>40400</v>
       </c>
@@ -24203,7 +25739,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="30">
+    <row r="71" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="36">
         <v>40400</v>
       </c>
@@ -24245,7 +25781,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="72" spans="1:13">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="36">
         <v>40400</v>
       </c>
@@ -24287,7 +25823,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="73" spans="1:13">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="36">
         <v>40449</v>
       </c>
@@ -24329,7 +25865,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="30">
+    <row r="74" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="36">
         <v>40449</v>
       </c>
@@ -24371,7 +25907,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="75" spans="1:13">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="36">
         <v>40449</v>
       </c>
@@ -24413,7 +25949,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="76" spans="1:13">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="36">
         <v>40576</v>
       </c>
@@ -24455,7 +25991,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="77" spans="1:13">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="36">
         <v>40576</v>
       </c>
@@ -24497,7 +26033,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="30">
+    <row r="78" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="36">
         <v>40576</v>
       </c>
@@ -24539,7 +26075,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="79" spans="1:13">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="36">
         <v>40576</v>
       </c>
@@ -24581,7 +26117,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="80" spans="1:13">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="36">
         <v>40756</v>
       </c>
@@ -24623,7 +26159,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="81" spans="1:13">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="36">
         <v>40756</v>
       </c>
@@ -24665,7 +26201,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="82" spans="1:13">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="36">
         <v>40758</v>
       </c>
@@ -24707,7 +26243,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="30">
+    <row r="83" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="36">
         <v>40847</v>
       </c>
@@ -24749,7 +26285,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="84" spans="1:13">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="36">
         <v>40856</v>
       </c>
@@ -24791,7 +26327,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="30">
+    <row r="85" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="36">
         <v>40856</v>
       </c>
@@ -24833,7 +26369,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="86" spans="1:13">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="36">
         <v>40856</v>
       </c>
@@ -24875,7 +26411,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="87" spans="1:13">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="36">
         <v>40856</v>
       </c>
@@ -24917,7 +26453,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="88" spans="1:13">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="36">
         <v>40960</v>
       </c>
@@ -24959,7 +26495,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="30">
+    <row r="89" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="36">
         <v>40960</v>
       </c>
@@ -25001,7 +26537,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="90" spans="1:13">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="36">
         <v>40960</v>
       </c>
@@ -25043,7 +26579,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="91" spans="1:13">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="36">
         <v>40977</v>
       </c>
@@ -25085,7 +26621,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="92" spans="1:13">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="36">
         <v>40977</v>
       </c>
@@ -25127,7 +26663,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="45">
+    <row r="93" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A93" s="36">
         <v>41066</v>
       </c>
@@ -25169,7 +26705,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="94" spans="1:13" ht="30">
+    <row r="94" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="36">
         <v>41123</v>
       </c>
@@ -25211,7 +26747,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="95" spans="1:13">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="36">
         <v>41123</v>
       </c>
@@ -25253,7 +26789,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="96" spans="1:13">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="36">
         <v>41123</v>
       </c>
@@ -25295,7 +26831,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="97" spans="1:13">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="36">
         <v>41123</v>
       </c>
@@ -25337,7 +26873,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="98" spans="1:13">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="36">
         <v>41123</v>
       </c>
@@ -25379,7 +26915,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="99" spans="1:13">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="36">
         <v>41158</v>
       </c>
@@ -25421,7 +26957,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="100" spans="1:13">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="36">
         <v>41158</v>
       </c>
@@ -25463,7 +26999,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="101" spans="1:13" ht="30">
+    <row r="101" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="36">
         <v>41310</v>
       </c>
@@ -25505,7 +27041,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="102" spans="1:13">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="36">
         <v>41310</v>
       </c>
@@ -25547,7 +27083,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="103" spans="1:13">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="36">
         <v>41310</v>
       </c>
@@ -25589,7 +27125,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="104" spans="1:13" ht="30">
+    <row r="104" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="36">
         <v>41310</v>
       </c>
@@ -25631,7 +27167,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="105" spans="1:13">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="36">
         <v>41310</v>
       </c>
@@ -25673,7 +27209,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="106" spans="1:13">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="36">
         <v>41310</v>
       </c>
@@ -25715,7 +27251,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="107" spans="1:13">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="36">
         <v>41507</v>
       </c>
@@ -25757,7 +27293,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="108" spans="1:13">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="36">
         <v>41507</v>
       </c>
@@ -25799,7 +27335,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="109" spans="1:13">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="36">
         <v>41507</v>
       </c>
@@ -25841,7 +27377,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="110" spans="1:13" ht="45">
+    <row r="110" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A110" s="36">
         <v>41547</v>
       </c>
@@ -25883,7 +27419,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="111" spans="1:13" ht="30">
+    <row r="111" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="36">
         <v>41571</v>
       </c>
@@ -25925,7 +27461,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="112" spans="1:13">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" s="36">
         <v>41571</v>
       </c>
@@ -25967,7 +27503,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="113" spans="1:13">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" s="36">
         <v>41571</v>
       </c>
@@ -26009,7 +27545,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="114" spans="1:13">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" s="36">
         <v>41675</v>
       </c>
@@ -26051,7 +27587,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="115" spans="1:13">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" s="36">
         <v>41675</v>
       </c>
@@ -26093,7 +27629,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="116" spans="1:13">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" s="36">
         <v>41675</v>
       </c>
@@ -26135,7 +27671,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="117" spans="1:13">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" s="36">
         <v>41829</v>
       </c>
@@ -26177,7 +27713,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="118" spans="1:13">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" s="36">
         <v>41829</v>
       </c>
@@ -26219,7 +27755,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="119" spans="1:13">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" s="36">
         <v>41829</v>
       </c>
@@ -26261,7 +27797,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="120" spans="1:13">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" s="36">
         <v>41829</v>
       </c>
@@ -26303,7 +27839,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="121" spans="1:13">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" s="36">
         <v>41829</v>
       </c>
@@ -26345,7 +27881,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="122" spans="1:13" ht="30">
+    <row r="122" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A122" s="36">
         <v>41897</v>
       </c>
@@ -26387,7 +27923,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="123" spans="1:13" ht="30">
+    <row r="123" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A123" s="36">
         <v>41949</v>
       </c>
@@ -26429,7 +27965,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="124" spans="1:13">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" s="36">
         <v>41949</v>
       </c>
@@ -26471,7 +28007,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="125" spans="1:13">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" s="36">
         <v>41949</v>
       </c>
@@ -26513,7 +28049,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="126" spans="1:13" ht="30">
+    <row r="126" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" s="36">
         <v>42019</v>
       </c>
@@ -26555,7 +28091,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="127" spans="1:13">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" s="36">
         <v>42039</v>
       </c>
@@ -26597,7 +28133,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="128" spans="1:13">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" s="36">
         <v>42039</v>
       </c>
@@ -26639,7 +28175,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="129" spans="1:13">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" s="36">
         <v>42039</v>
       </c>
@@ -26681,7 +28217,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="130" spans="1:13" ht="30">
+    <row r="130" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" s="36">
         <v>42039</v>
       </c>
@@ -26723,7 +28259,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="131" spans="1:13">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" s="36">
         <v>42039</v>
       </c>
@@ -26765,7 +28301,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="132" spans="1:13">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" s="36">
         <v>42039</v>
       </c>
@@ -26807,7 +28343,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="133" spans="1:13" ht="30">
+    <row r="133" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A133" s="36">
         <v>42052</v>
       </c>
@@ -26849,7 +28385,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="134" spans="1:13">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="36">
         <v>42067</v>
       </c>
@@ -26891,7 +28427,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="135" spans="1:13">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" s="36">
         <v>42067</v>
       </c>
@@ -26933,7 +28469,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="136" spans="1:13">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" s="36">
         <v>42067</v>
       </c>
@@ -26975,7 +28511,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="137" spans="1:13" ht="30">
+    <row r="137" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A137" s="36">
         <v>42079</v>
       </c>
@@ -27017,7 +28553,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="138" spans="1:13" ht="30">
+    <row r="138" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A138" s="36">
         <v>42170</v>
       </c>
@@ -27059,7 +28595,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="139" spans="1:13">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" s="36">
         <v>42285</v>
       </c>
@@ -27101,7 +28637,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="140" spans="1:13">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" s="36">
         <v>42285</v>
       </c>
@@ -27143,7 +28679,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="141" spans="1:13">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" s="36">
         <v>42285</v>
       </c>
@@ -27185,7 +28721,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="142" spans="1:13">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" s="36">
         <v>42285</v>
       </c>
@@ -27227,7 +28763,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="143" spans="1:13">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" s="36">
         <v>42285</v>
       </c>
@@ -27269,7 +28805,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="144" spans="1:13" ht="30">
+    <row r="144" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A144" s="36">
         <v>42285</v>
       </c>
@@ -27311,7 +28847,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="145" spans="1:13">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" s="36">
         <v>42416</v>
       </c>
@@ -27353,7 +28889,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="146" spans="1:13">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" s="36">
         <v>42416</v>
       </c>
@@ -27395,7 +28931,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="147" spans="1:13">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" s="36">
         <v>42416</v>
       </c>
@@ -27437,7 +28973,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="148" spans="1:13" ht="30">
+    <row r="148" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A148" s="36">
         <v>42416</v>
       </c>
@@ -27479,7 +29015,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="149" spans="1:13">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" s="36">
         <v>42416</v>
       </c>
@@ -27521,7 +29057,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="150" spans="1:13">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" s="36">
         <v>42416</v>
       </c>
@@ -27563,7 +29099,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="151" spans="1:13">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D151" s="40"/>
       <c r="E151" s="40"/>
       <c r="F151" s="40"/>

--- a/static/Debt Affordability Study Data.xlsx
+++ b/static/Debt Affordability Study Data.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">

--- a/static/Debt Affordability Study Data.xlsx
+++ b/static/Debt Affordability Study Data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="28755" windowHeight="12330" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="28755" windowHeight="12330" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Outstanding (Fig 2)" sheetId="1" r:id="rId1"/>
@@ -2053,7 +2053,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2869,11 +2868,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="100"/>
-        <c:axId val="541347392"/>
-        <c:axId val="541352488"/>
+        <c:axId val="537650648"/>
+        <c:axId val="537643592"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="541347392"/>
+        <c:axId val="537650648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2883,7 +2882,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="541352488"/>
+        <c:crossAx val="537643592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2891,7 +2890,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="541352488"/>
+        <c:axId val="537643592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="22000000000"/>
@@ -2909,7 +2908,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="541347392"/>
+        <c:crossAx val="537650648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -2919,7 +2918,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2969,7 +2967,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3775,11 +3772,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="541347784"/>
-        <c:axId val="541348176"/>
+        <c:axId val="537645160"/>
+        <c:axId val="537645552"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="541347784"/>
+        <c:axId val="537645160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3799,7 +3796,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="541348176"/>
+        <c:crossAx val="537645552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3807,7 +3804,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="541348176"/>
+        <c:axId val="537645552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3823,7 +3820,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="541347784"/>
+        <c:crossAx val="537645160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -3833,7 +3830,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4613,11 +4609,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="541352096"/>
-        <c:axId val="541348960"/>
+        <c:axId val="537645944"/>
+        <c:axId val="537644768"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="541352096"/>
+        <c:axId val="537645944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4627,7 +4623,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="541348960"/>
+        <c:crossAx val="537644768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4635,7 +4631,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="541348960"/>
+        <c:axId val="537644768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4651,7 +4647,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="541352096"/>
+        <c:crossAx val="537645944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -6177,11 +6173,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="590245584"/>
-        <c:axId val="590244408"/>
+        <c:axId val="537647904"/>
+        <c:axId val="537647120"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="590245584"/>
+        <c:axId val="537647904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6224,7 +6220,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="590244408"/>
+        <c:crossAx val="537647120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6232,7 +6228,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="590244408"/>
+        <c:axId val="537647120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6283,7 +6279,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="590245584"/>
+        <c:crossAx val="537647904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -6542,8 +6538,8 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="100"/>
-        <c:axId val="541166208"/>
-        <c:axId val="429225384"/>
+        <c:axId val="537643984"/>
+        <c:axId val="537651432"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6698,11 +6694,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="542623592"/>
-        <c:axId val="542620848"/>
+        <c:axId val="537648296"/>
+        <c:axId val="537650256"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="541166208"/>
+        <c:axId val="537643984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6722,7 +6718,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="429225384"/>
+        <c:crossAx val="537651432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6730,7 +6726,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="429225384"/>
+        <c:axId val="537651432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6751,7 +6747,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="541166208"/>
+        <c:crossAx val="537643984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -6759,7 +6755,7 @@
         </c:dispUnits>
       </c:valAx>
       <c:catAx>
-        <c:axId val="542623592"/>
+        <c:axId val="537648296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6769,7 +6765,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="542620848"/>
+        <c:crossAx val="537650256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6777,7 +6773,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="542620848"/>
+        <c:axId val="537650256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.12000000000000002"/>
@@ -6798,7 +6794,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="542623592"/>
+        <c:crossAx val="537648296"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7340,8 +7336,8 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="100"/>
-        <c:axId val="542616928"/>
-        <c:axId val="542616536"/>
+        <c:axId val="537648688"/>
+        <c:axId val="537647512"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7685,11 +7681,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="542623984"/>
-        <c:axId val="542614968"/>
+        <c:axId val="537649472"/>
+        <c:axId val="537642808"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="542616928"/>
+        <c:axId val="537648688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7709,7 +7705,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="542616536"/>
+        <c:crossAx val="537647512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7717,7 +7713,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="542616536"/>
+        <c:axId val="537647512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7738,7 +7734,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="542616928"/>
+        <c:crossAx val="537648688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -7746,7 +7742,7 @@
         </c:dispUnits>
       </c:valAx>
       <c:catAx>
-        <c:axId val="542623984"/>
+        <c:axId val="537649472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7756,7 +7752,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="542614968"/>
+        <c:crossAx val="537642808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7764,7 +7760,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="542614968"/>
+        <c:axId val="537642808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7784,7 +7780,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="542623984"/>
+        <c:crossAx val="537649472"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11069,7 +11065,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
@@ -11688,8 +11684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G38"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
